--- a/sample/ref/doc/TestControl.xlsx
+++ b/sample/ref/doc/TestControl.xlsx
@@ -9,12 +9,12 @@
   </bookViews>
   <sheets>
     <sheet name="state-chart" sheetId="1" r:id="rId1"/>
-    <sheet name="itemsinfo" sheetId="89" r:id="rId92"/>
-    <sheet name="help" sheetId="88" r:id="rId91"/>
-    <sheet name="setting.ini" sheetId="87" r:id="rId90"/>
-    <sheet name="template-statefunc" sheetId="86" r:id="rId89"/>
-    <sheet name="template-source" sheetId="85" r:id="rId88"/>
-    <sheet name="config" sheetId="84" r:id="rId87"/>
+    <sheet name="itemsinfo" sheetId="95" r:id="rId98"/>
+    <sheet name="help" sheetId="94" r:id="rId97"/>
+    <sheet name="setting.ini" sheetId="93" r:id="rId96"/>
+    <sheet name="template-statefunc" sheetId="92" r:id="rId95"/>
+    <sheet name="template-source" sheetId="91" r:id="rId94"/>
+    <sheet name="config" sheetId="90" r:id="rId93"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="415">
   <si>
     <t>thumbnail</t>
   </si>
@@ -2746,6 +2746,85 @@
 @@@
 fillter_state_location_list=@@@
 [{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":42,"y":17}},{"Key":"S_END","Value":{"x":117,"y":132}},{"Key":"S_FIRSTSTEP","Value":{"x":84,"y":236}},{"Key":"S_TITLE","Value":{"x":75,"y":490}},{"Key":"S_QUESTION","Value":{"x":879,"y":25}}]},{"Key":"\/PREPARE\/","Value":[{"Key":"S_TITLE","Value":{"x":50,"y":100}},{"Key":"S_SHOW_MSGWINDOW","Value":{"x":1002,"y":22}},{"Key":"S_SETUP_AKANE","Value":{"x":30,"y":273}},{"Key":"S_SETUP_YAMATO","Value":{"x":442,"y":288}},{"Key":"S_SCENE_1","Value":{"x":219,"y":16}},{"Key":"S_DISP_MENU","Value":{"x":417,"y":16}},{"Key":"S_AKANE_EMOTION","Value":{"x":211,"y":287}},{"Key":"S_SET_CHARNAMEAREA","Value":{"x":1201,"y":23}},{"Key":"S_SETUP_MESSAGEWINDOW","Value":{"x":616,"y":13}},{"Key":"S_ADJUST_CHARAREGION","Value":{"x":810,"y":21}}]},{"Key":"\/Interest\/","Value":[{"Key":"S_QUESTION","Value":{"x":48,"y":29}},{"Key":"S_INTREST","Value":{"x":259,"y":19}},{"Key":"S_INTREST3","Value":{"x":888,"y":20}},{"Key":"S_INTREST7","Value":{"x":480,"y":288}},{"Key":"S_INTREST18","Value":{"x":250,"y":946}},{"Key":"S_INTREST13","Value":{"x":517,"y":558}},{"Key":"S_INTREST8","Value":{"x":711,"y":296}},{"Key":"S_INTREST15","Value":{"x":933,"y":565}},{"Key":"S_INTREST19","Value":{"x":481,"y":973}},{"Key":"S_INTREST4","Value":{"x":1105,"y":23}},{"Key":"S_INTREST10","Value":{"x":1144,"y":295}},{"Key":"S_INTREST17","Value":{"x":15,"y":935}},{"Key":"S_INTREST11","Value":{"x":40,"y":551}},{"Key":"S_INTREST9","Value":{"x":921,"y":297}},{"Key":"S_INTREST1","Value":{"x":474,"y":19}},{"Key":"S_INTREST5","Value":{"x":40,"y":297}},{"Key":"S_HALWAY","Value":{"x":863,"y":1003}},{"Key":"S_INTREST12","Value":{"x":288,"y":553}},{"Key":"S_INTREST2","Value":{"x":680,"y":19}},{"Key":"S_INTREST6","Value":{"x":268,"y":288}},{"Key":"S_INTREST16","Value":{"x":1132,"y":571}},{"Key":"S_INTREST14","Value":{"x":725,"y":609}}]},{"Key":"\/HALLWAY\/","Value":[{"Key":"S_HALWAY1","Value":{"x":459,"y":109}},{"Key":"S_INTREST19","Value":{"x":52,"y":77}},{"Key":"S_HALWAY3","Value":{"x":857,"y":109}},{"Key":"S_HALWAY","Value":{"x":238,"y":103}},{"Key":"S_HALWAY5","Value":{"x":1272,"y":115}},{"Key":"S_HALWAY4","Value":{"x":1062,"y":110}},{"Key":"S_HALWAY2","Value":{"x":660,"y":106}},{"Key":"S_FULLSCREEN","Value":{"x":1261,"y":428}}]},{"Key":"\/MENUBTN\/","Value":[{"Key":"S_MUSIC","Value":{"x":943,"y":173}},{"Key":"S_MENUBTN2","Value":{"x":675,"y":107}},{"Key":"S_MENUBTN1","Value":{"x":483,"y":107}},{"Key":"S_FULLSCREEN7","Value":{"x":54,"y":227}},{"Key":"S_MENUBTN","Value":{"x":276,"y":94}}]},{"Key":"\/YAMATO\/","Value":[{"Key":"S_MUSIC_END","Value":{"x":50,"y":100}},{"Key":"S_SHOW_YAMATO","Value":{"x":42,"y":315}},{"Key":"S_SHOW_YAMATO2","Value":{"x":439,"y":323}},{"Key":"S_SHOW_YAMATO1","Value":{"x":240,"y":317}},{"Key":"S_SHOW_YAMATO3","Value":{"x":642,"y":325}},{"Key":"S_EPILOGUE","Value":{"x":904,"y":325}}]},{"Key":"\/EPLOGUE\/","Value":[{"Key":"S_EPILOGUE3","Value":{"x":677,"y":255}},{"Key":"S_EPILOGUE1","Value":{"x":296,"y":253}},{"Key":"S_EPILOGUE2","Value":{"x":496,"y":255}},{"Key":"S_SHOW_YAMATO3","Value":{"x":47,"y":109}},{"Key":"S_EPILOGUE","Value":{"x":92,"y":249}},{"Key":"S_BTNLINK","Value":{"x":1104,"y":284}}]},{"Key":"\/BTNLINK\/","Value":[{"Key":"S_EPILOGUE3","Value":{"x":50,"y":100}},{"Key":"S_BL_TAG","Value":{"x":359,"y":1199}},{"Key":"S_BL_EXAMP","Value":{"x":554,"y":326}},{"Key":"S_JUMP_TO_BTNLINK","Value":{"x":1031,"y":409}},{"Key":"S_BL_TECH","Value":{"x":781,"y":695}},{"Key":"S_BL_INTRO","Value":{"x":332,"y":114}},{"Key":"S_BTNLINK1","Value":{"x":84,"y":461}},{"Key":"S_BTNLINK","Value":{"x":53,"y":83}},{"Key":"S_BL_INFO","Value":{"x":605,"y":1054}}]},{"Key":"\/MUSIC\/","Value":[{"Key":"S_PLAYMUSIC","Value":{"x":251,"y":282}},{"Key":"S_NOPLAYMUSIC","Value":{"x":264,"y":548}},{"Key":"S_MUSIC","Value":{"x":36,"y":242}},{"Key":"S_MENUBTN2","Value":{"x":39,"y":101}},{"Key":"S_MUSIC_END","Value":{"x":483,"y":292}},{"Key":"S_SHOW_YAMATO","Value":{"x":745,"y":292}}]}]
+@@@
+linecolor_data=@@@
+[{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"BTN_BY.\\("}]
+@@@
+use_external_command=0
+external_command=@@@
+@@@
+source_editor=@@@
+Code %1
+@@@
+source_editor_vs2015_support=1
+label_show=0
+label_text=@@@
+test
+@@@
+option_delete_thisstring=1
+option_delete_br_string=1
+option_delete_bracket_string=1
+option_delete_s_state_string=1
+option_copy_output_to_clipboard=0
+option_convert_with_confirm=0
+option_omit_basestate_string=0
+option_hide_basestate_contents=0
+option_hide_branchcmt_onbranchbox=0
+font_name=@@@
+MS UI Gothic
+@@@
+font_size=11
+comment_font_size=0
+contents_font_size=0
+state_width=140
+state_height=20
+comment_block_height=45
+content_max_height=200
+comment_block_fixed=0
+line_space=-1
+userbutton_title=@@@
+copy
+@@@
+userbutton_command=@@@
+..\copykstotyrano.bat
+@@@
+userbutton_callafterconvert=1
+</t>
+  </si>
+  <si>
+    <t>; The setting was created automatically. 2019/05/13 21:58:27
+; * pssgEditor version : 0.52.682.e87166581b6135c42d0181986a68f00552912530
+psggfile=@@@
+TestControl.psgg
+@@@
+xlsfile=@@@
+TestControl.xlsx
+@@@
+guid=@@@
+09a6d521-3ea1-430a-b507-3b86e13f32ee
+@@@
+bitmap_width=5000
+bitmap_height=2000
+c_statec_cmt=1
+c_thumbnail=1
+c_contents=1
+force_display_outpin=0
+last_action=@@@
+Left a path
+@@@
+target_pathdir=@@@
+/
+@@@
+state_location_list=@@@
+@@@
+nodegroup_comment_list=@@@
+[{"Key":"\/","Value":"This is the root"},{"Key":"\/PREPARE\/","Value":"ゲーム準備"},{"Key":"\/Intoroduction\/","Value":""},{"Key":"\/Interest\/","Value":""},{"Key":"\/HALLWAY\/","Value":""},{"Key":"\/MUSIC\/","Value":""},{"Key":"\/FULLSCREEN\/","Value":""},{"Key":"\/MENUBTN\/","Value":""},{"Key":"\/EPLOGUE\/","Value":""},{"Key":"\/YAMATO\/","Value":""},{"Key":"\/BTNLINK\/","Value":""}]
+@@@
+nodegroup_pos_list=@@@
+[{"Key":"\/","Value":{"x":100,"y":-1}},{"Key":"\/PREPARE\/","Value":{"x":395,"y":88}},{"Key":"\/Intoroduction\/","Value":{"x":654,"y":27}},{"Key":"\/Interest\/","Value":{"x":1073,"y":17}},{"Key":"\/HALLWAY\/","Value":{"x":1298,"y":23}},{"Key":"\/MUSIC\/","Value":{"x":847,"y":375}},{"Key":"\/FULLSCREEN\/","Value":{"x":424,"y":371}},{"Key":"\/MENUBTN\/","Value":{"x":646,"y":359}},{"Key":"\/EPLOGUE\/","Value":{"x":1261,"y":392}},{"Key":"\/YAMATO\/","Value":{"x":1054,"y":383}},{"Key":"\/BTNLINK\/","Value":{"x":427,"y":528}}]
+@@@
+fillter_state_location_list=@@@
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":42,"y":17}},{"Key":"S_END","Value":{"x":117,"y":132}},{"Key":"S_FIRSTSTEP","Value":{"x":84,"y":236}},{"Key":"S_TITLE","Value":{"x":75,"y":490}},{"Key":"S_QUESTION","Value":{"x":879,"y":25}},{"Key":"____altnative_state____PREPARE","Value":{"x":395,"y":88}},{"Key":"____altnative_state____Intoroduction","Value":{"x":654,"y":27}},{"Key":"____altnative_state____Interest","Value":{"x":1073,"y":17}},{"Key":"____altnative_state____HALLWAY","Value":{"x":1298,"y":23}},{"Key":"____altnative_state____MUSIC","Value":{"x":847,"y":375}},{"Key":"____altnative_state____FULLSCREEN","Value":{"x":424,"y":371}},{"Key":"____altnative_state____MENUBTN","Value":{"x":646,"y":359}},{"Key":"____altnative_state____EPLOGUE","Value":{"x":1261,"y":392}},{"Key":"____altnative_state____YAMATO","Value":{"x":1054,"y":383}},{"Key":"____altnative_state____BTNLINK","Value":{"x":427,"y":528}}]},{"Key":"\/PREPARE\/","Value":[{"Key":"S_TITLE","Value":{"x":50,"y":100}},{"Key":"S_SHOW_MSGWINDOW","Value":{"x":1002,"y":22}},{"Key":"S_SETUP_AKANE","Value":{"x":30,"y":273}},{"Key":"S_SETUP_YAMATO","Value":{"x":442,"y":288}},{"Key":"S_SCENE_1","Value":{"x":219,"y":16}},{"Key":"S_DISP_MENU","Value":{"x":417,"y":16}},{"Key":"S_AKANE_EMOTION","Value":{"x":211,"y":287}},{"Key":"S_SET_CHARNAMEAREA","Value":{"x":1201,"y":23}},{"Key":"S_SETUP_MESSAGEWINDOW","Value":{"x":616,"y":13}},{"Key":"S_ADJUST_CHARAREGION","Value":{"x":810,"y":21}}]},{"Key":"\/Interest\/","Value":[{"Key":"S_QUESTION","Value":{"x":48,"y":29}},{"Key":"S_INTREST","Value":{"x":259,"y":19}},{"Key":"S_INTREST3","Value":{"x":888,"y":20}},{"Key":"S_INTREST7","Value":{"x":480,"y":288}},{"Key":"S_INTREST18","Value":{"x":250,"y":946}},{"Key":"S_INTREST13","Value":{"x":517,"y":558}},{"Key":"S_INTREST8","Value":{"x":711,"y":296}},{"Key":"S_INTREST15","Value":{"x":933,"y":565}},{"Key":"S_INTREST19","Value":{"x":481,"y":973}},{"Key":"S_INTREST4","Value":{"x":1105,"y":23}},{"Key":"S_INTREST10","Value":{"x":1144,"y":295}},{"Key":"S_INTREST17","Value":{"x":15,"y":935}},{"Key":"S_INTREST11","Value":{"x":40,"y":551}},{"Key":"S_INTREST9","Value":{"x":921,"y":297}},{"Key":"S_INTREST1","Value":{"x":474,"y":19}},{"Key":"S_INTREST5","Value":{"x":40,"y":297}},{"Key":"S_HALWAY","Value":{"x":863,"y":1003}},{"Key":"S_INTREST12","Value":{"x":288,"y":553}},{"Key":"S_INTREST2","Value":{"x":680,"y":19}},{"Key":"S_INTREST6","Value":{"x":268,"y":288}},{"Key":"S_INTREST16","Value":{"x":1132,"y":571}},{"Key":"S_INTREST14","Value":{"x":725,"y":609}}]},{"Key":"\/HALLWAY\/","Value":[{"Key":"S_HALWAY1","Value":{"x":459,"y":109}},{"Key":"S_INTREST19","Value":{"x":52,"y":77}},{"Key":"S_HALWAY3","Value":{"x":857,"y":109}},{"Key":"S_HALWAY","Value":{"x":238,"y":103}},{"Key":"S_HALWAY5","Value":{"x":1272,"y":115}},{"Key":"S_HALWAY4","Value":{"x":1062,"y":110}},{"Key":"S_HALWAY2","Value":{"x":660,"y":106}},{"Key":"S_FULLSCREEN","Value":{"x":1261,"y":428}}]},{"Key":"\/MENUBTN\/","Value":[{"Key":"S_MUSIC","Value":{"x":943,"y":173}},{"Key":"S_MENUBTN2","Value":{"x":675,"y":107}},{"Key":"S_MENUBTN1","Value":{"x":483,"y":107}},{"Key":"S_FULLSCREEN7","Value":{"x":54,"y":227}},{"Key":"S_MENUBTN","Value":{"x":276,"y":94}}]},{"Key":"\/YAMATO\/","Value":[{"Key":"S_MUSIC_END","Value":{"x":50,"y":100}},{"Key":"S_SHOW_YAMATO","Value":{"x":42,"y":315}},{"Key":"S_SHOW_YAMATO2","Value":{"x":439,"y":323}},{"Key":"S_SHOW_YAMATO1","Value":{"x":240,"y":317}},{"Key":"S_SHOW_YAMATO3","Value":{"x":642,"y":325}},{"Key":"S_EPILOGUE","Value":{"x":904,"y":325}}]},{"Key":"\/EPLOGUE\/","Value":[{"Key":"S_EPILOGUE3","Value":{"x":677,"y":255}},{"Key":"S_EPILOGUE1","Value":{"x":296,"y":253}},{"Key":"S_EPILOGUE2","Value":{"x":496,"y":255}},{"Key":"S_SHOW_YAMATO3","Value":{"x":47,"y":109}},{"Key":"S_EPILOGUE","Value":{"x":92,"y":249}},{"Key":"S_BTNLINK","Value":{"x":1104,"y":284}}]},{"Key":"\/BTNLINK\/","Value":[{"Key":"S_EPILOGUE3","Value":{"x":50,"y":100}},{"Key":"S_BL_TAG","Value":{"x":359,"y":1199}},{"Key":"S_BL_EXAMP","Value":{"x":554,"y":326}},{"Key":"S_JUMP_TO_BTNLINK","Value":{"x":1031,"y":409}},{"Key":"S_BL_TECH","Value":{"x":781,"y":695}},{"Key":"S_BL_INTRO","Value":{"x":332,"y":114}},{"Key":"S_BTNLINK1","Value":{"x":84,"y":461}},{"Key":"S_BTNLINK","Value":{"x":53,"y":83}},{"Key":"S_BL_INFO","Value":{"x":605,"y":1054}}]},{"Key":"\/MUSIC\/","Value":[{"Key":"S_PLAYMUSIC","Value":{"x":251,"y":282}},{"Key":"S_NOPLAYMUSIC","Value":{"x":264,"y":548}},{"Key":"S_MUSIC","Value":{"x":36,"y":242}},{"Key":"S_MENUBTN2","Value":{"x":39,"y":101}},{"Key":"S_MUSIC_END","Value":{"x":483,"y":292}},{"Key":"S_SHOW_YAMATO","Value":{"x":745,"y":292}}]}]
 @@@
 linecolor_data=@@@
 [{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"BTN_BY.\\("}]
@@ -5347,21 +5426,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet90.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
   </sheetData>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5375,7 +5454,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5389,7 +5468,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5403,7 +5482,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5417,7 +5496,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/sample/ref/doc/TestControl.xlsx
+++ b/sample/ref/doc/TestControl.xlsx
@@ -3,18 +3,18 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="true"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58280440-C6C3-46AF-A851-145498D4DCA1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{846BDD2D-B14E-48A1-930C-299C746E6F77}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2760" yWindow="285" windowWidth="23310" windowHeight="17190" activeTab="0"/>
+    <workbookView xWindow="8040" yWindow="1170" windowWidth="23310" windowHeight="17190" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="state-chart" sheetId="1" r:id="rId1"/>
-    <sheet name="itemsinfo" sheetId="114" r:id="rId22"/>
-    <sheet name="help" sheetId="113" r:id="rId21"/>
-    <sheet name="setting.ini" sheetId="112" r:id="rId20"/>
-    <sheet name="template-statefunc" sheetId="111" r:id="rId19"/>
-    <sheet name="template-source" sheetId="110" r:id="rId18"/>
-    <sheet name="config" sheetId="109" r:id="rId17"/>
+    <sheet name="itemsinfo" sheetId="179" r:id="rId48"/>
+    <sheet name="help" sheetId="178" r:id="rId47"/>
+    <sheet name="setting.ini" sheetId="177" r:id="rId46"/>
+    <sheet name="template-statefunc" sheetId="176" r:id="rId45"/>
+    <sheet name="template-source" sheetId="175" r:id="rId44"/>
+    <sheet name="config" sheetId="174" r:id="rId43"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1326" uniqueCount="389">
   <si>
     <t>thumbnail</t>
   </si>
@@ -145,132 +145,6 @@
   <si>
     <t>brcond</t>
     <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>; -----
-; 項目説明
-; -----
-[embed]
-jpn=@@@
-コード埋め込み用。
-ステート名がE_時に利用可能。
-ステート機能は利用できない。
-@@@
-en=@@@
-For embedding code.
-Enable this section if state name starts with "E_".
-Disabled state features.
-@@@
-[members]
-jpn=@@@
-メンバ変数及び関数等を指定する。
-@@@
-en=@@@
-Specify members, variables, classes,  etc.
-@@@
-[state]
-jpn=@@@
-ステート名を指定する。
-英文字、数字、アンダーバーで構成される。
-先頭は英文字およびアンダーバー。
-@@@
-en=@@@
-Specify a state name.
-The state name consits of alphabet, number and underbar except that the head characther should be alphabet or a underbar.
-@@@
-[thumbnail]
-jpn=@@@
-説明用のイメージを指定する。
-@@@
-en=@@@
-Specify a image for explanation of this state.
-@@@
-[vars]
-jpn=@@@
-変数宣言を指定する。
-@@@
-en=@@@
-Specify variable definitions.
-@@@
-[init]
-jpn=@@@
-初期化用処理を指定する。
-@@@
-en=@@@
-Specify a initial process.
-@@@
-[update]
-jpn=@@@
-更新処理を指定する。
-@@@
-en=@@@
-Specify a update process.
-@@@
-[wait]
-jpn=@@@
-待ち条件を指定する。
-true時にループを解除する。
-@@@
-en=@@@
-Specify a waiting condition.
-Release the loop if the condition is true.
-@@@
-[post_wait]
-jpn=@@@
-'wait'後の処理を指定する。
-@@@
-en=@@@
-Specify the post process after 'wait'.
-@@@
-[branch]
-jpn=@@@
-分岐処理を指定する。
-１行に一つの分岐命令を書く。
-GUIにより上書きされるため引数は適当に指定する。
-例）
-br_YES(?);
-br_NO(?);
-br_UNKNOWN(?);
-@@@
-en=@@@
-Specify branch functions.
-Each line has a branch function.
-Specify a tentavie parameter for each branch function because GUI overwrites the parameter.
-i.e)
-br_YES(?);
-br_NO(?);
-br_UNKNOWN(?);
-@@@
-[nextstate]
-jpn=@@@
-次に実行するステートを指定する。
-@@@
-en=@@@
-Specify the next state to be executed.
-@@@
-[nowait]
-jpn=@@@
-次のステートへ同期待ちをせず実行する時に 'yes'を指定する。
-同期待ち時には何も指定しない。
-@@@
-en=@@@
-Specify 'yes' if the next state will be execute without a sync wait.
-Do not specify any word wheh the next state will be execute with a sync wait.
-@@@
-[!dir]
-jpn=@@@
-システムがステートのディレクトリ指定に使用。
-@@@
-en=@@@
-System uses this for the directory path of the state.
-@@@
-[!uuid]
-jpn=@@@
-システムがステートのuuid指定に使用。
-@@@
-en=@@@
-System uses this for the uuid of the state.
-@@@</t>
   </si>
   <si>
     <t>[setting]
@@ -619,10 +493,6 @@
 ゲーム準備</t>
   </si>
   <si>
-    <t>/Intoroduction/
-(654,27)</t>
-  </si>
-  <si>
     <t>brifc(S_INTREST);
 brelseifc(S_INTREST);
 brelseif(S_INTREST);</t>
@@ -637,10 +507,6 @@
     <t>[chara_mod  name="akane" face="happy"  ]
 #あかね
 わー。興味あるなんて、嬉しいなー。[p]</t>
-  </si>
-  <si>
-    <t>/Interest/
-(1073,17)</t>
   </si>
   <si>
     <t>259,19</t>
@@ -720,10 +586,6 @@
   <si>
     <t>#
 お、廊下に移動したね。[p]</t>
-  </si>
-  <si>
-    <t>/HALLWAY/
-(1298,23)</t>
   </si>
   <si>
     <t>459,109</t>
@@ -1005,10 +867,6 @@
 よし、再生するよ。[l]
 @playbgm time="3000" storage=music.ogg loop=true
 徐々にフェードインしながら再生することもできるんだ[l][cm]</t>
-  </si>
-  <si>
-    <t>/MUSIC/
-(847,375)</t>
   </si>
   <si>
     <t>100054</t>
@@ -1031,10 +889,6 @@
 [chara_config ptext="chara_name_area"]</t>
   </si>
   <si>
-    <t>/FULLSCREEN/
-(424,371)</t>
-  </si>
-  <si>
     <t>453,556</t>
   </si>
   <si>
@@ -1071,10 +925,6 @@
     <t>#
 大丈夫？[p]
 これだけあれば、ゲームを作るには困らなそうだね[p]</t>
-  </si>
-  <si>
-    <t>/MENUBTN/
-(646,359)</t>
   </si>
   <si>
     <t>675,107</t>
@@ -1248,10 +1098,6 @@
 [cm]</t>
   </si>
   <si>
-    <t>/EPLOGUE/
-(1261,392)</t>
-  </si>
-  <si>
     <t>677,255</t>
   </si>
   <si>
@@ -1295,10 +1141,6 @@
 ここらで、別のキャラクターに登場してもらいましょうか[l][cm]
 やまとー[p]
 [chara_show name="yamato"]</t>
-  </si>
-  <si>
-    <t>/YAMATO/
-(1054,383)</t>
   </si>
   <si>
     <t>42,315</t>
@@ -1371,10 +1213,6 @@
 [iscript]
 window.open("http://tyrano.jp/home/tag");
 [endscript]</t>
-  </si>
-  <si>
-    <t>/BTNLINK/
-(427,528)</t>
   </si>
   <si>
     <t>100093</t>
@@ -1637,7 +1475,208 @@
 ;</t>
   </si>
   <si>
-    <t>; The setting was created automatically. 2019/05/18 11:52:21
+    <t>[inpmethod]
+init=
+state-ref=
+chara_face=
+bg_after=
+button=
+prewait=
+E_=
+init_iscript-cmt=
+link-cmt=
+branch=
+!dir=
+bg=
+nextstate=
+nowait=@@@
+*select
+nowait
+@@@
+thumbnail=
+clickable-cmt=
+init_iscript=
+glink-cmt=
+state-cmt=
+!pos=
+!uuid=
+clickable=
+state=
+S_=
+link=
+bgx=
+init-cmt=
+button-cmt=
+C_=
+brcond=
+wait=
+glink=
+[stateloc]
+E_=S1
+S_=S0
+C_=S2
+[itemcond]
+thumbnail=read_only,share,S.+
+gosubstate=read_only,exclusion,S0
+branch=read_only,exclusion,S0
+state=read_only,share,S.+
+nextstate=read_only,exclusion,S0
+return=read_only,exclusion,S0
+brcond=read_only,exclusion,S0
+embed=read_only,exclusion,S1
+basestate=read_only,share,S.+</t>
+  </si>
+  <si>
+    <t>prewait</t>
+  </si>
+  <si>
+    <t>[button x=100 y=320 graphic="title/button_load.png"  role="load" ]
+[button x=100 y=390 graphic="title/button_cg.png" storage="cg.ks" ]
+[button x=100 y=460 graphic="title/button_replay.png" storage="replay.ks" ]
+[button x=100 y=530 graphic="title/button_config.png" role="sleepgame" storage="config.ks" ]</t>
+  </si>
+  <si>
+    <t>/Intoroduction/
+(654,27)</t>
+  </si>
+  <si>
+    <t>/Interest/
+(1073,17)</t>
+  </si>
+  <si>
+    <t>/HALLWAY/
+(1298,23)</t>
+  </si>
+  <si>
+    <t>/MUSIC/
+(847,375)</t>
+  </si>
+  <si>
+    <t>/FULLSCREEN/
+(424,371)</t>
+  </si>
+  <si>
+    <t>/MENUBTN/
+(646,359)</t>
+  </si>
+  <si>
+    <t>/EPLOGUE/
+(1261,392)</t>
+  </si>
+  <si>
+    <t>/YAMATO/
+(1054,383)</t>
+  </si>
+  <si>
+    <t>/BTNLINK/
+(427,528)</t>
+  </si>
+  <si>
+    <t>[nextstate]
+jpn=次に実行するステートを指定する。
+en=Specify the next state to be executed.
+[branch]
+jpn=@@@
+分岐処理を指定する。
+１行に一つの分岐命令を書く。
+GUIにより上書きされるため引数は適当に指定する。
+例）
+br_YES(?);
+br_NO(?);
+br_UNKNOWN(?);
+@@@
+en=@@@
+Specify branch functions.
+Each line has a branch function.
+Specify a tentavie parameter for each branch function because GUI overwrites the parameter.
+i.e)
+br_YES(?);
+br_NO(?);
+br_UNKNOWN(?);
+@@@
+[update]
+jpn=更新処理を指定する。
+en=Specify a update process.
+[wait]
+en=Set waiting code
+jpn=待ち用のコード指定
+[state]
+jpn=@@@
+ステート名を指定する。
+英文字、数字、アンダーバーで構成される。
+先頭は英文字およびアンダーバー。
+@@@
+en=@@@
+Specify a state name.
+The state name consits of alphabet, number and underbar except that the head characther should be alphabet or a underbar.
+@@@
+[members]
+jpn=メンバ変数及び関数等を指定する。
+en=@@@
+Specify members, variables, classes,  etc.
+@@@
+[post_wait]
+jpn='wait'後の処理を指定する。
+en=Specify the post process after 'wait'.
+[vars]
+jpn=変数宣言を指定する。
+en=Specify variable definitions.
+[prewait]
+en=Specify code for before waiting.
+jpn=待機前のコードを指定
+[embed]
+jpn=@@@
+コード埋め込み用。
+ステート名がE_時に利用可能。
+ステート機能は利用できない。
+@@@
+en=@@@
+For embedding code.
+Enable this section if state name starts with "E_".
+Disabled state features.
+@@@
+[init_iscript]
+en=Specify initial code of inline script.
+jpn=初期化用のインラインコードを指定
+[!uuid]
+jpn=システムがステートのuuid指定に使用。
+en=@@@
+System uses this for the uuid of the state.
+@@@
+[link]
+jpn=LABEL,"TEXT",追加([r])
+en=LABEL,"TEXT",Adding([r])
+[init]
+jpn=初期化用処理を指定する。
+en=Specify a initial process.
+[!dir]
+jpn=システムがステートのディレクトリ指定に使用。
+en=@@@
+System uses this for the directory path of the state.
+@@@
+[glink]
+en=X,Y,W,SIZE,Label,Text
+jpn=X,Y,W,SIZE,Label,Text
+[nowait]
+jpn=@@@
+次のステートへ同期待ちをせず実行する時に 'yes'を指定する。
+同期待ち時には何も指定しない。
+@@@
+en=@@@
+Specify 'yes' if the next state will be execute without a sync wait.
+Do not specify any word wheh the next state will be execute with a sync wait.
+@@@
+[thumbnail]
+jpn=説明用のイメージを指定する。
+en=@@@
+Specify a image for explanation of this state.
+@@@
+[button]
+jpn=X,Y,FILE,LABEL
+en=X,Y,FILE,LABEL</t>
+  </si>
+  <si>
+    <t>; The setting was created automatically. 2019/05/19 11:02:18
 ; * pssgEditor version : 0.52.682.e87166581b6135c42d0181986a68f00552912530
 psggfile=@@@
 TestControl.psgg
@@ -1658,7 +1697,7 @@
 Edited a state.
 @@@
 target_pathdir=@@@
-/
+/MUSIC/
 @@@
 state_location_list=@@@
 @@@
@@ -1669,7 +1708,7 @@
 [{"Key":"\/","Value":{"x":100,"y":-1}},{"Key":"\/PREPARE\/","Value":{"x":395,"y":88}},{"Key":"\/Intoroduction\/","Value":{"x":654,"y":27}},{"Key":"\/Interest\/","Value":{"x":1073,"y":17}},{"Key":"\/HALLWAY\/","Value":{"x":1298,"y":23}},{"Key":"\/MUSIC\/","Value":{"x":847,"y":375}},{"Key":"\/FULLSCREEN\/","Value":{"x":424,"y":371}},{"Key":"\/MENUBTN\/","Value":{"x":646,"y":359}},{"Key":"\/EPLOGUE\/","Value":{"x":1261,"y":392}},{"Key":"\/YAMATO\/","Value":{"x":1054,"y":383}},{"Key":"\/BTNLINK\/","Value":{"x":427,"y":528}}]
 @@@
 fillter_state_location_list=@@@
-[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":42,"y":17}},{"Key":"S_END","Value":{"x":117,"y":132}},{"Key":"S_FIRSTSTEP","Value":{"x":84,"y":236}},{"Key":"S_TITLE","Value":{"x":75,"y":490}},{"Key":"S_QUESTION","Value":{"x":879,"y":25}},{"Key":"____altnative_state____PREPARE","Value":{"x":395,"y":88}},{"Key":"____altnative_state____Intoroduction","Value":{"x":654,"y":27}},{"Key":"____altnative_state____Interest","Value":{"x":1073,"y":17}},{"Key":"____altnative_state____HALLWAY","Value":{"x":1298,"y":23}},{"Key":"____altnative_state____MUSIC","Value":{"x":847,"y":375}},{"Key":"____altnative_state____FULLSCREEN","Value":{"x":424,"y":371}},{"Key":"____altnative_state____MENUBTN","Value":{"x":646,"y":359}},{"Key":"____altnative_state____EPLOGUE","Value":{"x":1261,"y":392}},{"Key":"____altnative_state____YAMATO","Value":{"x":1054,"y":383}},{"Key":"____altnative_state____BTNLINK","Value":{"x":427,"y":528}}]},{"Key":"\/PREPARE\/","Value":[{"Key":"S_TITLE","Value":{"x":50,"y":100}},{"Key":"S_SHOW_MSGWINDOW","Value":{"x":1002,"y":22}},{"Key":"S_SETUP_AKANE","Value":{"x":30,"y":273}},{"Key":"S_SETUP_YAMATO","Value":{"x":442,"y":288}},{"Key":"S_SCENE_1","Value":{"x":219,"y":16}},{"Key":"S_DISP_MENU","Value":{"x":417,"y":16}},{"Key":"S_AKANE_EMOTION","Value":{"x":211,"y":287}},{"Key":"S_SET_CHARNAMEAREA","Value":{"x":1201,"y":23}},{"Key":"S_SETUP_MESSAGEWINDOW","Value":{"x":616,"y":13}},{"Key":"S_ADJUST_CHARAREGION","Value":{"x":810,"y":21}}]},{"Key":"\/Interest\/","Value":[{"Key":"S_QUESTION","Value":{"x":48,"y":29}},{"Key":"S_INTREST","Value":{"x":259,"y":19}},{"Key":"S_INTREST3","Value":{"x":888,"y":20}},{"Key":"S_INTREST7","Value":{"x":480,"y":288}},{"Key":"S_INTREST18","Value":{"x":250,"y":946}},{"Key":"S_INTREST13","Value":{"x":517,"y":558}},{"Key":"S_INTREST8","Value":{"x":711,"y":296}},{"Key":"S_INTREST15","Value":{"x":933,"y":565}},{"Key":"S_INTREST19","Value":{"x":481,"y":973}},{"Key":"S_INTREST4","Value":{"x":1105,"y":23}},{"Key":"S_INTREST10","Value":{"x":1144,"y":295}},{"Key":"S_INTREST17","Value":{"x":15,"y":935}},{"Key":"S_INTREST11","Value":{"x":40,"y":551}},{"Key":"S_INTREST9","Value":{"x":921,"y":297}},{"Key":"S_INTREST1","Value":{"x":474,"y":19}},{"Key":"S_INTREST5","Value":{"x":40,"y":297}},{"Key":"S_HALWAY","Value":{"x":863,"y":1003}},{"Key":"S_INTREST12","Value":{"x":288,"y":553}},{"Key":"S_INTREST2","Value":{"x":680,"y":19}},{"Key":"S_INTREST6","Value":{"x":268,"y":288}},{"Key":"S_INTREST16","Value":{"x":1132,"y":571}},{"Key":"S_INTREST14","Value":{"x":725,"y":609}}]},{"Key":"\/HALLWAY\/","Value":[{"Key":"S_HALWAY1","Value":{"x":459,"y":109}},{"Key":"S_INTREST19","Value":{"x":52,"y":77}},{"Key":"S_HALWAY3","Value":{"x":857,"y":109}},{"Key":"S_HALWAY","Value":{"x":238,"y":103}},{"Key":"S_HALWAY5","Value":{"x":1272,"y":115}},{"Key":"S_HALWAY4","Value":{"x":1062,"y":110}},{"Key":"S_HALWAY2","Value":{"x":660,"y":106}},{"Key":"S_FULLSCREEN","Value":{"x":1261,"y":428}}]},{"Key":"\/MENUBTN\/","Value":[{"Key":"S_MUSIC","Value":{"x":943,"y":173}},{"Key":"S_MENUBTN2","Value":{"x":675,"y":107}},{"Key":"S_MENUBTN1","Value":{"x":483,"y":107}},{"Key":"S_FULLSCREEN7","Value":{"x":54,"y":227}},{"Key":"S_MENUBTN","Value":{"x":276,"y":94}}]},{"Key":"\/YAMATO\/","Value":[{"Key":"S_MUSIC_END","Value":{"x":50,"y":100}},{"Key":"S_SHOW_YAMATO","Value":{"x":42,"y":315}},{"Key":"S_SHOW_YAMATO2","Value":{"x":439,"y":323}},{"Key":"S_SHOW_YAMATO1","Value":{"x":240,"y":317}},{"Key":"S_SHOW_YAMATO3","Value":{"x":642,"y":325}},{"Key":"S_EPILOGUE","Value":{"x":904,"y":325}}]},{"Key":"\/EPLOGUE\/","Value":[{"Key":"S_EPILOGUE3","Value":{"x":677,"y":255}},{"Key":"S_EPILOGUE1","Value":{"x":296,"y":253}},{"Key":"S_EPILOGUE2","Value":{"x":496,"y":255}},{"Key":"S_SHOW_YAMATO3","Value":{"x":47,"y":109}},{"Key":"S_EPILOGUE","Value":{"x":92,"y":249}},{"Key":"S_BTNLINK","Value":{"x":1104,"y":284}}]},{"Key":"\/BTNLINK\/","Value":[{"Key":"S_EPILOGUE3","Value":{"x":50,"y":100}},{"Key":"S_BL_TAG","Value":{"x":359,"y":1199}},{"Key":"S_BL_EXAMP","Value":{"x":554,"y":326}},{"Key":"S_JUMP_TO_BTNLINK","Value":{"x":1031,"y":409}},{"Key":"S_BL_TECH","Value":{"x":781,"y":695}},{"Key":"S_BL_INTRO","Value":{"x":332,"y":114}},{"Key":"S_BTNLINK1","Value":{"x":84,"y":461}},{"Key":"S_BTNLINK","Value":{"x":53,"y":83}},{"Key":"S_BL_INFO","Value":{"x":605,"y":1054}}]},{"Key":"\/MUSIC\/","Value":[{"Key":"S_PLAYMUSIC","Value":{"x":251,"y":282}},{"Key":"S_NOPLAYMUSIC","Value":{"x":264,"y":548}},{"Key":"S_MUSIC","Value":{"x":36,"y":242}},{"Key":"S_MENUBTN2","Value":{"x":39,"y":101}},{"Key":"S_MUSIC_END","Value":{"x":483,"y":292}},{"Key":"S_SHOW_YAMATO","Value":{"x":745,"y":292}}]}]
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":42,"y":17}},{"Key":"S_END","Value":{"x":117,"y":132}},{"Key":"S_FIRSTSTEP","Value":{"x":84,"y":236}},{"Key":"S_TITLE","Value":{"x":75,"y":490}},{"Key":"S_QUESTION","Value":{"x":879,"y":25}}]},{"Key":"\/PREPARE\/","Value":[{"Key":"S_TITLE","Value":{"x":50,"y":100}},{"Key":"S_SHOW_MSGWINDOW","Value":{"x":1002,"y":22}},{"Key":"S_SETUP_AKANE","Value":{"x":30,"y":273}},{"Key":"S_SETUP_YAMATO","Value":{"x":442,"y":288}},{"Key":"S_SCENE_1","Value":{"x":219,"y":16}},{"Key":"S_DISP_MENU","Value":{"x":417,"y":16}},{"Key":"S_AKANE_EMOTION","Value":{"x":211,"y":287}},{"Key":"S_SET_CHARNAMEAREA","Value":{"x":1201,"y":23}},{"Key":"S_SETUP_MESSAGEWINDOW","Value":{"x":616,"y":13}},{"Key":"S_ADJUST_CHARAREGION","Value":{"x":810,"y":21}}]},{"Key":"\/Interest\/","Value":[{"Key":"S_QUESTION","Value":{"x":48,"y":29}},{"Key":"S_INTREST","Value":{"x":259,"y":19}},{"Key":"S_INTREST3","Value":{"x":888,"y":20}},{"Key":"S_INTREST7","Value":{"x":480,"y":288}},{"Key":"S_INTREST18","Value":{"x":250,"y":946}},{"Key":"S_INTREST13","Value":{"x":517,"y":558}},{"Key":"S_INTREST8","Value":{"x":711,"y":296}},{"Key":"S_INTREST15","Value":{"x":933,"y":565}},{"Key":"S_INTREST19","Value":{"x":481,"y":973}},{"Key":"S_INTREST4","Value":{"x":1105,"y":23}},{"Key":"S_INTREST10","Value":{"x":1144,"y":295}},{"Key":"S_INTREST17","Value":{"x":15,"y":935}},{"Key":"S_INTREST11","Value":{"x":40,"y":551}},{"Key":"S_INTREST9","Value":{"x":921,"y":297}},{"Key":"S_INTREST1","Value":{"x":474,"y":19}},{"Key":"S_INTREST5","Value":{"x":40,"y":297}},{"Key":"S_HALWAY","Value":{"x":863,"y":1003}},{"Key":"S_INTREST12","Value":{"x":288,"y":553}},{"Key":"S_INTREST2","Value":{"x":680,"y":19}},{"Key":"S_INTREST6","Value":{"x":268,"y":288}},{"Key":"S_INTREST16","Value":{"x":1132,"y":571}},{"Key":"S_INTREST14","Value":{"x":725,"y":609}}]},{"Key":"\/HALLWAY\/","Value":[{"Key":"S_HALWAY1","Value":{"x":459,"y":109}},{"Key":"S_INTREST19","Value":{"x":52,"y":77}},{"Key":"S_HALWAY3","Value":{"x":857,"y":109}},{"Key":"S_HALWAY","Value":{"x":238,"y":103}},{"Key":"S_HALWAY5","Value":{"x":1272,"y":115}},{"Key":"S_HALWAY4","Value":{"x":1062,"y":110}},{"Key":"S_HALWAY2","Value":{"x":660,"y":106}},{"Key":"S_FULLSCREEN","Value":{"x":1261,"y":428}}]},{"Key":"\/MENUBTN\/","Value":[{"Key":"S_MUSIC","Value":{"x":943,"y":173}},{"Key":"S_MENUBTN2","Value":{"x":675,"y":107}},{"Key":"S_MENUBTN1","Value":{"x":483,"y":107}},{"Key":"S_FULLSCREEN7","Value":{"x":54,"y":227}},{"Key":"S_MENUBTN","Value":{"x":276,"y":94}}]},{"Key":"\/YAMATO\/","Value":[{"Key":"S_MUSIC_END","Value":{"x":50,"y":100}},{"Key":"S_SHOW_YAMATO","Value":{"x":42,"y":315}},{"Key":"S_SHOW_YAMATO2","Value":{"x":439,"y":323}},{"Key":"S_SHOW_YAMATO1","Value":{"x":240,"y":317}},{"Key":"S_SHOW_YAMATO3","Value":{"x":642,"y":325}},{"Key":"S_EPILOGUE","Value":{"x":904,"y":325}}]},{"Key":"\/EPLOGUE\/","Value":[{"Key":"S_EPILOGUE3","Value":{"x":677,"y":255}},{"Key":"S_EPILOGUE1","Value":{"x":296,"y":253}},{"Key":"S_EPILOGUE2","Value":{"x":496,"y":255}},{"Key":"S_SHOW_YAMATO3","Value":{"x":47,"y":109}},{"Key":"S_EPILOGUE","Value":{"x":92,"y":249}},{"Key":"S_BTNLINK","Value":{"x":1104,"y":284}}]},{"Key":"\/BTNLINK\/","Value":[{"Key":"S_EPILOGUE3","Value":{"x":50,"y":100}},{"Key":"S_BL_TAG","Value":{"x":359,"y":1199}},{"Key":"S_BL_EXAMP","Value":{"x":554,"y":326}},{"Key":"S_JUMP_TO_BTNLINK","Value":{"x":1031,"y":409}},{"Key":"S_BL_TECH","Value":{"x":781,"y":695}},{"Key":"S_BL_INTRO","Value":{"x":332,"y":114}},{"Key":"S_BTNLINK1","Value":{"x":84,"y":461}},{"Key":"S_BTNLINK","Value":{"x":53,"y":83}},{"Key":"S_BL_INFO","Value":{"x":605,"y":1054}}]},{"Key":"\/MUSIC\/","Value":[{"Key":"S_PLAYMUSIC","Value":{"x":251,"y":282}},{"Key":"S_NOPLAYMUSIC","Value":{"x":264,"y":548}},{"Key":"S_MUSIC","Value":{"x":36,"y":242}},{"Key":"S_MENUBTN2","Value":{"x":39,"y":101}},{"Key":"S_MUSIC_END","Value":{"x":483,"y":292}},{"Key":"S_SHOW_YAMATO","Value":{"x":745,"y":292}}]}]
 @@@
 linecolor_data=@@@
 [{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"BTN_BY.\\("}]
@@ -1715,7 +1754,52 @@
 userbutton_callafterconvert=1</t>
   </si>
   <si>
-    <t>; The setting was created automatically. 2019/05/18 11:55:45
+    <t>/Intoroduction/
+(654,27)
+</t>
+  </si>
+  <si>
+    <t>/Interest/
+(1073,17)
+</t>
+  </si>
+  <si>
+    <t>/HALLWAY/
+(1298,23)
+</t>
+  </si>
+  <si>
+    <t>/MUSIC/
+(847,375)
+</t>
+  </si>
+  <si>
+    <t>/FULLSCREEN/
+(424,371)
+</t>
+  </si>
+  <si>
+    <t>/MENUBTN/
+(646,359)
+</t>
+  </si>
+  <si>
+    <t>/EPLOGUE/
+(1261,392)
+</t>
+  </si>
+  <si>
+    <t>/YAMATO/
+(1054,383)
+</t>
+  </si>
+  <si>
+    <t>/BTNLINK/
+(427,528)
+</t>
+  </si>
+  <si>
+    <t>; The setting was created automatically. 2019/05/19 11:08:19
 ; * pssgEditor version : 0.52.682.e87166581b6135c42d0181986a68f00552912530
 psggfile=@@@
 TestControl.psgg
@@ -1733,7 +1817,7 @@
 c_contents=1
 force_display_outpin=0
 last_action=@@@
-Initilized
+Left a path
 @@@
 target_pathdir=@@@
 /
@@ -1794,14 +1878,537 @@
 </t>
   </si>
   <si>
-    <t>[button x=100 y=320 graphic="title/button_load.png"  role="load" ]
-[button x=100 y=390 graphic="title/button_cg.png" storage="cg.ks" ]
-[button x=100 y=460 graphic="title/button_replay.png" storage="replay.ks" ]
-[button x=100 y=530 graphic="title/button_config.png" role="sleepgame" storage="config.ks" ]
-[s]</t>
-  </si>
-  <si>
-    <t>; The setting was created automatically. 2019/05/18 11:56:51
+    <t>[nextstate]
+jpn=次に実行するステートを指定する。
+en=Specify the next state to be executed.
+[branch]
+jpn=@@@
+分岐処理を指定する。
+１行に一つの分岐命令を書く。
+GUIにより上書きされるため引数は適当に指定する。
+例）
+br_YES(?);
+br_NO(?);
+br_UNKNOWN(?);
+@@@
+en=@@@
+Specify branch functions.
+Each line has a branch function.
+Specify a tentavie parameter for each branch function because GUI overwrites the parameter.
+i.e)
+br_YES(?);
+br_NO(?);
+br_UNKNOWN(?);
+@@@
+[update]
+jpn=更新処理を指定する。
+en=Specify a update process.
+[wait]
+en=Set waiting code
+jpn=待ち用のコード指定
+[state]
+jpn=@@@
+ステート名を指定する。
+英文字、数字、アンダーバーで構成される。
+先頭は英文字およびアンダーバー。
+@@@
+en=@@@
+Specify a state name.
+The state name consits of alphabet, number and underbar except that the head characther should be alphabet or a underbar.
+@@@
+[members]
+jpn=メンバ変数及び関数等を指定する。
+en=@@@
+Specify members, variables, classes,  etc.
+@@@
+[clickable]
+en=X,Y,W,H,Label
+jpn=X,Y,W,H,Label
+[post_wait]
+jpn='wait'後の処理を指定する。
+en=Specify the post process after 'wait'.
+[vars]
+jpn=変数宣言を指定する。
+en=Specify variable definitions.
+[prewait]
+en=Specify code for before waiting.
+jpn=待機前のコードを指定
+[embed]
+jpn=@@@
+コード埋め込み用。
+ステート名がE_時に利用可能。
+ステート機能は利用できない。
+@@@
+en=@@@
+For embedding code.
+Enable this section if state name starts with "E_".
+Disabled state features.
+@@@
+[init_iscript]
+en=Specify initial code of inline script.
+jpn=初期化用のインラインコードを指定
+[!uuid]
+jpn=システムがステートのuuid指定に使用。
+en=@@@
+System uses this for the uuid of the state.
+@@@
+[link]
+jpn=LABEL,"TEXT",追加([r])
+en=LABEL,"TEXT",Adding([r])
+[init]
+jpn=初期化用処理を指定する。
+en=Specify a initial process.
+[!dir]
+jpn=システムがステートのディレクトリ指定に使用。
+en=@@@
+System uses this for the directory path of the state.
+@@@
+[glink]
+en=X,Y,W,SIZE,Label,Text
+jpn=X,Y,W,SIZE,Label,Text
+[nowait]
+jpn=@@@
+次のステートへ同期待ちをせず実行する時に 'yes'を指定する。
+同期待ち時には何も指定しない。
+@@@
+en=@@@
+Specify 'yes' if the next state will be execute without a sync wait.
+Do not specify any word wheh the next state will be execute with a sync wait.
+@@@
+[thumbnail]
+jpn=説明用のイメージを指定する。
+en=@@@
+Specify a image for explanation of this state.
+@@@
+[button]
+jpn=X,Y,FILE,LABEL
+en=X,Y,FILE,LABEL
+</t>
+  </si>
+  <si>
+    <t>; The setting was created automatically. 2019/05/19 11:12:46
+; * pssgEditor version : 0.52.682.e87166581b6135c42d0181986a68f00552912530
+psggfile=@@@
+TestControl.psgg
+@@@
+xlsfile=@@@
+TestControl.xlsx
+@@@
+guid=@@@
+09a6d521-3ea1-430a-b507-3b86e13f32ee
+@@@
+bitmap_width=5000
+bitmap_height=2000
+c_statec_cmt=1
+c_thumbnail=1
+c_contents=1
+force_display_outpin=0
+last_action=@@@
+Initilized
+@@@
+target_pathdir=@@@
+/
+@@@
+state_location_list=@@@
+@@@
+nodegroup_comment_list=@@@
+[{"Key":"\/","Value":"This is the root"},{"Key":"\/PREPARE\/","Value":"ゲーム準備"},{"Key":"\/Intoroduction\/","Value":""},{"Key":"\/Interest\/","Value":""},{"Key":"\/HALLWAY\/","Value":""},{"Key":"\/MUSIC\/","Value":""},{"Key":"\/FULLSCREEN\/","Value":""},{"Key":"\/MENUBTN\/","Value":""},{"Key":"\/EPLOGUE\/","Value":""},{"Key":"\/YAMATO\/","Value":""},{"Key":"\/BTNLINK\/","Value":""}]
+@@@
+nodegroup_pos_list=@@@
+[{"Key":"\/","Value":{"x":100,"y":-1}},{"Key":"\/PREPARE\/","Value":{"x":395,"y":88}},{"Key":"\/Intoroduction\/","Value":{"x":654,"y":27}},{"Key":"\/Interest\/","Value":{"x":1073,"y":17}},{"Key":"\/HALLWAY\/","Value":{"x":1298,"y":23}},{"Key":"\/MUSIC\/","Value":{"x":847,"y":375}},{"Key":"\/FULLSCREEN\/","Value":{"x":424,"y":371}},{"Key":"\/MENUBTN\/","Value":{"x":646,"y":359}},{"Key":"\/EPLOGUE\/","Value":{"x":1261,"y":392}},{"Key":"\/YAMATO\/","Value":{"x":1054,"y":383}},{"Key":"\/BTNLINK\/","Value":{"x":427,"y":528}}]
+@@@
+fillter_state_location_list=@@@
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":42,"y":17}},{"Key":"S_END","Value":{"x":117,"y":132}},{"Key":"S_FIRSTSTEP","Value":{"x":84,"y":236}},{"Key":"S_TITLE","Value":{"x":75,"y":490}},{"Key":"S_QUESTION","Value":{"x":879,"y":25}},{"Key":"____altnative_state____PREPARE","Value":{"x":395,"y":88}},{"Key":"____altnative_state____Intoroduction","Value":{"x":654,"y":27}},{"Key":"____altnative_state____Interest","Value":{"x":1073,"y":17}},{"Key":"____altnative_state____HALLWAY","Value":{"x":1298,"y":23}},{"Key":"____altnative_state____MUSIC","Value":{"x":847,"y":375}},{"Key":"____altnative_state____FULLSCREEN","Value":{"x":424,"y":371}},{"Key":"____altnative_state____MENUBTN","Value":{"x":646,"y":359}},{"Key":"____altnative_state____EPLOGUE","Value":{"x":1261,"y":392}},{"Key":"____altnative_state____YAMATO","Value":{"x":1054,"y":383}},{"Key":"____altnative_state____BTNLINK","Value":{"x":427,"y":528}}]},{"Key":"\/PREPARE\/","Value":[{"Key":"S_TITLE","Value":{"x":50,"y":100}},{"Key":"S_SHOW_MSGWINDOW","Value":{"x":1002,"y":22}},{"Key":"S_SETUP_AKANE","Value":{"x":30,"y":273}},{"Key":"S_SETUP_YAMATO","Value":{"x":442,"y":288}},{"Key":"S_SCENE_1","Value":{"x":219,"y":16}},{"Key":"S_DISP_MENU","Value":{"x":417,"y":16}},{"Key":"S_AKANE_EMOTION","Value":{"x":211,"y":287}},{"Key":"S_SET_CHARNAMEAREA","Value":{"x":1201,"y":23}},{"Key":"S_SETUP_MESSAGEWINDOW","Value":{"x":616,"y":13}},{"Key":"S_ADJUST_CHARAREGION","Value":{"x":810,"y":21}}]},{"Key":"\/Interest\/","Value":[{"Key":"S_QUESTION","Value":{"x":48,"y":29}},{"Key":"S_INTREST","Value":{"x":259,"y":19}},{"Key":"S_INTREST3","Value":{"x":888,"y":20}},{"Key":"S_INTREST7","Value":{"x":480,"y":288}},{"Key":"S_INTREST18","Value":{"x":250,"y":946}},{"Key":"S_INTREST13","Value":{"x":517,"y":558}},{"Key":"S_INTREST8","Value":{"x":711,"y":296}},{"Key":"S_INTREST15","Value":{"x":933,"y":565}},{"Key":"S_INTREST19","Value":{"x":481,"y":973}},{"Key":"S_INTREST4","Value":{"x":1105,"y":23}},{"Key":"S_INTREST10","Value":{"x":1144,"y":295}},{"Key":"S_INTREST17","Value":{"x":15,"y":935}},{"Key":"S_INTREST11","Value":{"x":40,"y":551}},{"Key":"S_INTREST9","Value":{"x":921,"y":297}},{"Key":"S_INTREST1","Value":{"x":474,"y":19}},{"Key":"S_INTREST5","Value":{"x":40,"y":297}},{"Key":"S_HALWAY","Value":{"x":863,"y":1003}},{"Key":"S_INTREST12","Value":{"x":288,"y":553}},{"Key":"S_INTREST2","Value":{"x":680,"y":19}},{"Key":"S_INTREST6","Value":{"x":268,"y":288}},{"Key":"S_INTREST16","Value":{"x":1132,"y":571}},{"Key":"S_INTREST14","Value":{"x":725,"y":609}}]},{"Key":"\/HALLWAY\/","Value":[{"Key":"S_HALWAY1","Value":{"x":459,"y":109}},{"Key":"S_INTREST19","Value":{"x":52,"y":77}},{"Key":"S_HALWAY3","Value":{"x":857,"y":109}},{"Key":"S_HALWAY","Value":{"x":238,"y":103}},{"Key":"S_HALWAY5","Value":{"x":1272,"y":115}},{"Key":"S_HALWAY4","Value":{"x":1062,"y":110}},{"Key":"S_HALWAY2","Value":{"x":660,"y":106}},{"Key":"S_FULLSCREEN","Value":{"x":1261,"y":428}}]},{"Key":"\/MENUBTN\/","Value":[{"Key":"S_MUSIC","Value":{"x":943,"y":173}},{"Key":"S_MENUBTN2","Value":{"x":675,"y":107}},{"Key":"S_MENUBTN1","Value":{"x":483,"y":107}},{"Key":"S_FULLSCREEN7","Value":{"x":54,"y":227}},{"Key":"S_MENUBTN","Value":{"x":276,"y":94}}]},{"Key":"\/YAMATO\/","Value":[{"Key":"S_MUSIC_END","Value":{"x":50,"y":100}},{"Key":"S_SHOW_YAMATO","Value":{"x":42,"y":315}},{"Key":"S_SHOW_YAMATO2","Value":{"x":439,"y":323}},{"Key":"S_SHOW_YAMATO1","Value":{"x":240,"y":317}},{"Key":"S_SHOW_YAMATO3","Value":{"x":642,"y":325}},{"Key":"S_EPILOGUE","Value":{"x":904,"y":325}}]},{"Key":"\/EPLOGUE\/","Value":[{"Key":"S_EPILOGUE3","Value":{"x":677,"y":255}},{"Key":"S_EPILOGUE1","Value":{"x":296,"y":253}},{"Key":"S_EPILOGUE2","Value":{"x":496,"y":255}},{"Key":"S_SHOW_YAMATO3","Value":{"x":47,"y":109}},{"Key":"S_EPILOGUE","Value":{"x":92,"y":249}},{"Key":"S_BTNLINK","Value":{"x":1104,"y":284}}]},{"Key":"\/BTNLINK\/","Value":[{"Key":"S_EPILOGUE3","Value":{"x":50,"y":100}},{"Key":"S_BL_TAG","Value":{"x":359,"y":1199}},{"Key":"S_BL_EXAMP","Value":{"x":554,"y":326}},{"Key":"S_JUMP_TO_BTNLINK","Value":{"x":1031,"y":409}},{"Key":"S_BL_TECH","Value":{"x":781,"y":695}},{"Key":"S_BL_INTRO","Value":{"x":332,"y":114}},{"Key":"S_BTNLINK1","Value":{"x":84,"y":461}},{"Key":"S_BTNLINK","Value":{"x":53,"y":83}},{"Key":"S_BL_INFO","Value":{"x":605,"y":1054}}]},{"Key":"\/MUSIC\/","Value":[{"Key":"S_PLAYMUSIC","Value":{"x":251,"y":282}},{"Key":"S_NOPLAYMUSIC","Value":{"x":264,"y":548}},{"Key":"S_MUSIC","Value":{"x":36,"y":242}},{"Key":"S_MENUBTN2","Value":{"x":39,"y":101}},{"Key":"S_MUSIC_END","Value":{"x":483,"y":292}},{"Key":"S_SHOW_YAMATO","Value":{"x":745,"y":292}}]}]
+@@@
+linecolor_data=@@@
+[{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"BTN_BY.\\("}]
+@@@
+use_external_command=0
+external_command=@@@
+@@@
+source_editor=@@@
+Code %1
+@@@
+source_editor_vs2015_support=1
+label_show=0
+label_text=@@@
+test
+@@@
+option_delete_thisstring=1
+option_delete_br_string=1
+option_delete_bracket_string=1
+option_delete_s_state_string=1
+option_copy_output_to_clipboard=0
+option_convert_with_confirm=0
+option_omit_basestate_string=0
+option_hide_basestate_contents=0
+option_hide_branchcmt_onbranchbox=0
+font_name=@@@
+MS UI Gothic
+@@@
+font_size=11
+comment_font_size=0
+contents_font_size=0
+state_width=140
+state_height=20
+comment_block_height=45
+content_max_height=200
+comment_block_fixed=0
+line_space=-1
+userbutton_title=@@@
+copy
+@@@
+userbutton_command=@@@
+..\copykstotyrano.bat
+@@@
+userbutton_callafterconvert=1
+</t>
+  </si>
+  <si>
+    <t>; The setting was created automatically. 2019/05/19 11:17:47
+; * pssgEditor version : 0.52.682.e87166581b6135c42d0181986a68f00552912530
+psggfile=@@@
+TestControl.psgg
+@@@
+xlsfile=@@@
+TestControl.xlsx
+@@@
+guid=@@@
+09a6d521-3ea1-430a-b507-3b86e13f32ee
+@@@
+bitmap_width=5000
+bitmap_height=2000
+c_statec_cmt=1
+c_thumbnail=1
+c_contents=1
+force_display_outpin=0
+last_action=@@@
+Initilized
+@@@
+target_pathdir=@@@
+/
+@@@
+state_location_list=@@@
+@@@
+nodegroup_comment_list=@@@
+[{"Key":"\/","Value":"This is the root"},{"Key":"\/PREPARE\/","Value":"ゲーム準備"},{"Key":"\/Intoroduction\/","Value":""},{"Key":"\/Interest\/","Value":""},{"Key":"\/HALLWAY\/","Value":""},{"Key":"\/MUSIC\/","Value":""},{"Key":"\/FULLSCREEN\/","Value":""},{"Key":"\/MENUBTN\/","Value":""},{"Key":"\/EPLOGUE\/","Value":""},{"Key":"\/YAMATO\/","Value":""},{"Key":"\/BTNLINK\/","Value":""}]
+@@@
+nodegroup_pos_list=@@@
+[{"Key":"\/","Value":{"x":100,"y":-1}},{"Key":"\/PREPARE\/","Value":{"x":395,"y":88}},{"Key":"\/Intoroduction\/","Value":{"x":654,"y":27}},{"Key":"\/Interest\/","Value":{"x":1073,"y":17}},{"Key":"\/HALLWAY\/","Value":{"x":1298,"y":23}},{"Key":"\/MUSIC\/","Value":{"x":847,"y":375}},{"Key":"\/FULLSCREEN\/","Value":{"x":424,"y":371}},{"Key":"\/MENUBTN\/","Value":{"x":646,"y":359}},{"Key":"\/EPLOGUE\/","Value":{"x":1261,"y":392}},{"Key":"\/YAMATO\/","Value":{"x":1054,"y":383}},{"Key":"\/BTNLINK\/","Value":{"x":427,"y":528}}]
+@@@
+fillter_state_location_list=@@@
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":42,"y":17}},{"Key":"S_END","Value":{"x":117,"y":132}},{"Key":"S_FIRSTSTEP","Value":{"x":84,"y":236}},{"Key":"S_TITLE","Value":{"x":75,"y":490}},{"Key":"S_QUESTION","Value":{"x":879,"y":25}},{"Key":"____altnative_state____PREPARE","Value":{"x":395,"y":88}},{"Key":"____altnative_state____Intoroduction","Value":{"x":654,"y":27}},{"Key":"____altnative_state____Interest","Value":{"x":1073,"y":17}},{"Key":"____altnative_state____HALLWAY","Value":{"x":1298,"y":23}},{"Key":"____altnative_state____MUSIC","Value":{"x":847,"y":375}},{"Key":"____altnative_state____FULLSCREEN","Value":{"x":424,"y":371}},{"Key":"____altnative_state____MENUBTN","Value":{"x":646,"y":359}},{"Key":"____altnative_state____EPLOGUE","Value":{"x":1261,"y":392}},{"Key":"____altnative_state____YAMATO","Value":{"x":1054,"y":383}},{"Key":"____altnative_state____BTNLINK","Value":{"x":427,"y":528}}]},{"Key":"\/PREPARE\/","Value":[{"Key":"S_TITLE","Value":{"x":50,"y":100}},{"Key":"S_SHOW_MSGWINDOW","Value":{"x":1002,"y":22}},{"Key":"S_SETUP_AKANE","Value":{"x":30,"y":273}},{"Key":"S_SETUP_YAMATO","Value":{"x":442,"y":288}},{"Key":"S_SCENE_1","Value":{"x":219,"y":16}},{"Key":"S_DISP_MENU","Value":{"x":417,"y":16}},{"Key":"S_AKANE_EMOTION","Value":{"x":211,"y":287}},{"Key":"S_SET_CHARNAMEAREA","Value":{"x":1201,"y":23}},{"Key":"S_SETUP_MESSAGEWINDOW","Value":{"x":616,"y":13}},{"Key":"S_ADJUST_CHARAREGION","Value":{"x":810,"y":21}}]},{"Key":"\/Interest\/","Value":[{"Key":"S_QUESTION","Value":{"x":48,"y":29}},{"Key":"S_INTREST","Value":{"x":259,"y":19}},{"Key":"S_INTREST3","Value":{"x":888,"y":20}},{"Key":"S_INTREST7","Value":{"x":480,"y":288}},{"Key":"S_INTREST18","Value":{"x":250,"y":946}},{"Key":"S_INTREST13","Value":{"x":517,"y":558}},{"Key":"S_INTREST8","Value":{"x":711,"y":296}},{"Key":"S_INTREST15","Value":{"x":933,"y":565}},{"Key":"S_INTREST19","Value":{"x":481,"y":973}},{"Key":"S_INTREST4","Value":{"x":1105,"y":23}},{"Key":"S_INTREST10","Value":{"x":1144,"y":295}},{"Key":"S_INTREST17","Value":{"x":15,"y":935}},{"Key":"S_INTREST11","Value":{"x":40,"y":551}},{"Key":"S_INTREST9","Value":{"x":921,"y":297}},{"Key":"S_INTREST1","Value":{"x":474,"y":19}},{"Key":"S_INTREST5","Value":{"x":40,"y":297}},{"Key":"S_HALWAY","Value":{"x":863,"y":1003}},{"Key":"S_INTREST12","Value":{"x":288,"y":553}},{"Key":"S_INTREST2","Value":{"x":680,"y":19}},{"Key":"S_INTREST6","Value":{"x":268,"y":288}},{"Key":"S_INTREST16","Value":{"x":1132,"y":571}},{"Key":"S_INTREST14","Value":{"x":725,"y":609}}]},{"Key":"\/HALLWAY\/","Value":[{"Key":"S_HALWAY1","Value":{"x":459,"y":109}},{"Key":"S_INTREST19","Value":{"x":52,"y":77}},{"Key":"S_HALWAY3","Value":{"x":857,"y":109}},{"Key":"S_HALWAY","Value":{"x":238,"y":103}},{"Key":"S_HALWAY5","Value":{"x":1272,"y":115}},{"Key":"S_HALWAY4","Value":{"x":1062,"y":110}},{"Key":"S_HALWAY2","Value":{"x":660,"y":106}},{"Key":"S_FULLSCREEN","Value":{"x":1261,"y":428}}]},{"Key":"\/MENUBTN\/","Value":[{"Key":"S_MUSIC","Value":{"x":943,"y":173}},{"Key":"S_MENUBTN2","Value":{"x":675,"y":107}},{"Key":"S_MENUBTN1","Value":{"x":483,"y":107}},{"Key":"S_FULLSCREEN7","Value":{"x":54,"y":227}},{"Key":"S_MENUBTN","Value":{"x":276,"y":94}}]},{"Key":"\/YAMATO\/","Value":[{"Key":"S_MUSIC_END","Value":{"x":50,"y":100}},{"Key":"S_SHOW_YAMATO","Value":{"x":42,"y":315}},{"Key":"S_SHOW_YAMATO2","Value":{"x":439,"y":323}},{"Key":"S_SHOW_YAMATO1","Value":{"x":240,"y":317}},{"Key":"S_SHOW_YAMATO3","Value":{"x":642,"y":325}},{"Key":"S_EPILOGUE","Value":{"x":904,"y":325}}]},{"Key":"\/EPLOGUE\/","Value":[{"Key":"S_EPILOGUE3","Value":{"x":677,"y":255}},{"Key":"S_EPILOGUE1","Value":{"x":296,"y":253}},{"Key":"S_EPILOGUE2","Value":{"x":496,"y":255}},{"Key":"S_SHOW_YAMATO3","Value":{"x":47,"y":109}},{"Key":"S_EPILOGUE","Value":{"x":92,"y":249}},{"Key":"S_BTNLINK","Value":{"x":1104,"y":284}}]},{"Key":"\/BTNLINK\/","Value":[{"Key":"S_EPILOGUE3","Value":{"x":50,"y":100}},{"Key":"S_BL_TAG","Value":{"x":359,"y":1199}},{"Key":"S_BL_EXAMP","Value":{"x":554,"y":326}},{"Key":"S_JUMP_TO_BTNLINK","Value":{"x":1031,"y":409}},{"Key":"S_BL_TECH","Value":{"x":781,"y":695}},{"Key":"S_BL_INTRO","Value":{"x":332,"y":114}},{"Key":"S_BTNLINK1","Value":{"x":84,"y":461}},{"Key":"S_BTNLINK","Value":{"x":53,"y":83}},{"Key":"S_BL_INFO","Value":{"x":605,"y":1054}}]},{"Key":"\/MUSIC\/","Value":[{"Key":"S_PLAYMUSIC","Value":{"x":251,"y":282}},{"Key":"S_NOPLAYMUSIC","Value":{"x":264,"y":548}},{"Key":"S_MUSIC","Value":{"x":36,"y":242}},{"Key":"S_MENUBTN2","Value":{"x":39,"y":101}},{"Key":"S_MUSIC_END","Value":{"x":483,"y":292}},{"Key":"S_SHOW_YAMATO","Value":{"x":745,"y":292}}]}]
+@@@
+linecolor_data=@@@
+[{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"BTN_BY.\\("}]
+@@@
+use_external_command=0
+external_command=@@@
+@@@
+source_editor=@@@
+Code %1
+@@@
+source_editor_vs2015_support=1
+label_show=0
+label_text=@@@
+test
+@@@
+option_delete_thisstring=1
+option_delete_br_string=1
+option_delete_bracket_string=1
+option_delete_s_state_string=1
+option_copy_output_to_clipboard=0
+option_convert_with_confirm=0
+option_omit_basestate_string=0
+option_hide_basestate_contents=0
+option_hide_branchcmt_onbranchbox=0
+font_name=@@@
+MS UI Gothic
+@@@
+font_size=11
+comment_font_size=0
+contents_font_size=0
+state_width=140
+state_height=20
+comment_block_height=45
+content_max_height=200
+comment_block_fixed=0
+line_space=-1
+userbutton_title=@@@
+copy
+@@@
+userbutton_command=@@@
+..\copykstotyrano.bat
+@@@
+userbutton_callafterconvert=1
+</t>
+  </si>
+  <si>
+    <t>; The setting was created automatically. 2019/05/19 11:18:26
+; * pssgEditor version : 0.52.682.e87166581b6135c42d0181986a68f00552912530
+psggfile=@@@
+TestControl.psgg
+@@@
+xlsfile=@@@
+TestControl.xlsx
+@@@
+guid=@@@
+09a6d521-3ea1-430a-b507-3b86e13f32ee
+@@@
+bitmap_width=5000
+bitmap_height=2000
+c_statec_cmt=1
+c_thumbnail=1
+c_contents=1
+force_display_outpin=0
+last_action=@@@
+Initilized
+@@@
+target_pathdir=@@@
+/
+@@@
+state_location_list=@@@
+@@@
+nodegroup_comment_list=@@@
+[{"Key":"\/","Value":"This is the root"},{"Key":"\/PREPARE\/","Value":"ゲーム準備"},{"Key":"\/Intoroduction\/","Value":""},{"Key":"\/Interest\/","Value":""},{"Key":"\/HALLWAY\/","Value":""},{"Key":"\/MUSIC\/","Value":""},{"Key":"\/FULLSCREEN\/","Value":""},{"Key":"\/MENUBTN\/","Value":""},{"Key":"\/EPLOGUE\/","Value":""},{"Key":"\/YAMATO\/","Value":""},{"Key":"\/BTNLINK\/","Value":""}]
+@@@
+nodegroup_pos_list=@@@
+[{"Key":"\/","Value":{"x":100,"y":-1}},{"Key":"\/PREPARE\/","Value":{"x":395,"y":88}},{"Key":"\/Intoroduction\/","Value":{"x":654,"y":27}},{"Key":"\/Interest\/","Value":{"x":1073,"y":17}},{"Key":"\/HALLWAY\/","Value":{"x":1298,"y":23}},{"Key":"\/MUSIC\/","Value":{"x":847,"y":375}},{"Key":"\/FULLSCREEN\/","Value":{"x":424,"y":371}},{"Key":"\/MENUBTN\/","Value":{"x":646,"y":359}},{"Key":"\/EPLOGUE\/","Value":{"x":1261,"y":392}},{"Key":"\/YAMATO\/","Value":{"x":1054,"y":383}},{"Key":"\/BTNLINK\/","Value":{"x":427,"y":528}}]
+@@@
+fillter_state_location_list=@@@
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":42,"y":17}},{"Key":"S_END","Value":{"x":117,"y":132}},{"Key":"S_FIRSTSTEP","Value":{"x":84,"y":236}},{"Key":"S_TITLE","Value":{"x":75,"y":490}},{"Key":"S_QUESTION","Value":{"x":879,"y":25}},{"Key":"____altnative_state____PREPARE","Value":{"x":395,"y":88}},{"Key":"____altnative_state____Intoroduction","Value":{"x":654,"y":27}},{"Key":"____altnative_state____Interest","Value":{"x":1073,"y":17}},{"Key":"____altnative_state____HALLWAY","Value":{"x":1298,"y":23}},{"Key":"____altnative_state____MUSIC","Value":{"x":847,"y":375}},{"Key":"____altnative_state____FULLSCREEN","Value":{"x":424,"y":371}},{"Key":"____altnative_state____MENUBTN","Value":{"x":646,"y":359}},{"Key":"____altnative_state____EPLOGUE","Value":{"x":1261,"y":392}},{"Key":"____altnative_state____YAMATO","Value":{"x":1054,"y":383}},{"Key":"____altnative_state____BTNLINK","Value":{"x":427,"y":528}}]},{"Key":"\/PREPARE\/","Value":[{"Key":"S_TITLE","Value":{"x":50,"y":100}},{"Key":"S_SHOW_MSGWINDOW","Value":{"x":1002,"y":22}},{"Key":"S_SETUP_AKANE","Value":{"x":30,"y":273}},{"Key":"S_SETUP_YAMATO","Value":{"x":442,"y":288}},{"Key":"S_SCENE_1","Value":{"x":219,"y":16}},{"Key":"S_DISP_MENU","Value":{"x":417,"y":16}},{"Key":"S_AKANE_EMOTION","Value":{"x":211,"y":287}},{"Key":"S_SET_CHARNAMEAREA","Value":{"x":1201,"y":23}},{"Key":"S_SETUP_MESSAGEWINDOW","Value":{"x":616,"y":13}},{"Key":"S_ADJUST_CHARAREGION","Value":{"x":810,"y":21}}]},{"Key":"\/Interest\/","Value":[{"Key":"S_QUESTION","Value":{"x":48,"y":29}},{"Key":"S_INTREST","Value":{"x":259,"y":19}},{"Key":"S_INTREST3","Value":{"x":888,"y":20}},{"Key":"S_INTREST7","Value":{"x":480,"y":288}},{"Key":"S_INTREST18","Value":{"x":250,"y":946}},{"Key":"S_INTREST13","Value":{"x":517,"y":558}},{"Key":"S_INTREST8","Value":{"x":711,"y":296}},{"Key":"S_INTREST15","Value":{"x":933,"y":565}},{"Key":"S_INTREST19","Value":{"x":481,"y":973}},{"Key":"S_INTREST4","Value":{"x":1105,"y":23}},{"Key":"S_INTREST10","Value":{"x":1144,"y":295}},{"Key":"S_INTREST17","Value":{"x":15,"y":935}},{"Key":"S_INTREST11","Value":{"x":40,"y":551}},{"Key":"S_INTREST9","Value":{"x":921,"y":297}},{"Key":"S_INTREST1","Value":{"x":474,"y":19}},{"Key":"S_INTREST5","Value":{"x":40,"y":297}},{"Key":"S_HALWAY","Value":{"x":863,"y":1003}},{"Key":"S_INTREST12","Value":{"x":288,"y":553}},{"Key":"S_INTREST2","Value":{"x":680,"y":19}},{"Key":"S_INTREST6","Value":{"x":268,"y":288}},{"Key":"S_INTREST16","Value":{"x":1132,"y":571}},{"Key":"S_INTREST14","Value":{"x":725,"y":609}}]},{"Key":"\/HALLWAY\/","Value":[{"Key":"S_HALWAY1","Value":{"x":459,"y":109}},{"Key":"S_INTREST19","Value":{"x":52,"y":77}},{"Key":"S_HALWAY3","Value":{"x":857,"y":109}},{"Key":"S_HALWAY","Value":{"x":238,"y":103}},{"Key":"S_HALWAY5","Value":{"x":1272,"y":115}},{"Key":"S_HALWAY4","Value":{"x":1062,"y":110}},{"Key":"S_HALWAY2","Value":{"x":660,"y":106}},{"Key":"S_FULLSCREEN","Value":{"x":1261,"y":428}}]},{"Key":"\/MENUBTN\/","Value":[{"Key":"S_MUSIC","Value":{"x":943,"y":173}},{"Key":"S_MENUBTN2","Value":{"x":675,"y":107}},{"Key":"S_MENUBTN1","Value":{"x":483,"y":107}},{"Key":"S_FULLSCREEN7","Value":{"x":54,"y":227}},{"Key":"S_MENUBTN","Value":{"x":276,"y":94}}]},{"Key":"\/YAMATO\/","Value":[{"Key":"S_MUSIC_END","Value":{"x":50,"y":100}},{"Key":"S_SHOW_YAMATO","Value":{"x":42,"y":315}},{"Key":"S_SHOW_YAMATO2","Value":{"x":439,"y":323}},{"Key":"S_SHOW_YAMATO1","Value":{"x":240,"y":317}},{"Key":"S_SHOW_YAMATO3","Value":{"x":642,"y":325}},{"Key":"S_EPILOGUE","Value":{"x":904,"y":325}}]},{"Key":"\/EPLOGUE\/","Value":[{"Key":"S_EPILOGUE3","Value":{"x":677,"y":255}},{"Key":"S_EPILOGUE1","Value":{"x":296,"y":253}},{"Key":"S_EPILOGUE2","Value":{"x":496,"y":255}},{"Key":"S_SHOW_YAMATO3","Value":{"x":47,"y":109}},{"Key":"S_EPILOGUE","Value":{"x":92,"y":249}},{"Key":"S_BTNLINK","Value":{"x":1104,"y":284}}]},{"Key":"\/BTNLINK\/","Value":[{"Key":"S_EPILOGUE3","Value":{"x":50,"y":100}},{"Key":"S_BL_TAG","Value":{"x":359,"y":1199}},{"Key":"S_BL_EXAMP","Value":{"x":554,"y":326}},{"Key":"S_JUMP_TO_BTNLINK","Value":{"x":1031,"y":409}},{"Key":"S_BL_TECH","Value":{"x":781,"y":695}},{"Key":"S_BL_INTRO","Value":{"x":332,"y":114}},{"Key":"S_BTNLINK1","Value":{"x":84,"y":461}},{"Key":"S_BTNLINK","Value":{"x":53,"y":83}},{"Key":"S_BL_INFO","Value":{"x":605,"y":1054}}]},{"Key":"\/MUSIC\/","Value":[{"Key":"S_PLAYMUSIC","Value":{"x":251,"y":282}},{"Key":"S_NOPLAYMUSIC","Value":{"x":264,"y":548}},{"Key":"S_MUSIC","Value":{"x":36,"y":242}},{"Key":"S_MENUBTN2","Value":{"x":39,"y":101}},{"Key":"S_MUSIC_END","Value":{"x":483,"y":292}},{"Key":"S_SHOW_YAMATO","Value":{"x":745,"y":292}}]}]
+@@@
+linecolor_data=@@@
+[{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"BTN_BY.\\("}]
+@@@
+use_external_command=0
+external_command=@@@
+@@@
+source_editor=@@@
+Code %1
+@@@
+source_editor_vs2015_support=1
+label_show=0
+label_text=@@@
+test
+@@@
+option_delete_thisstring=1
+option_delete_br_string=1
+option_delete_bracket_string=1
+option_delete_s_state_string=1
+option_copy_output_to_clipboard=0
+option_convert_with_confirm=0
+option_omit_basestate_string=0
+option_hide_basestate_contents=0
+option_hide_branchcmt_onbranchbox=0
+font_name=@@@
+MS UI Gothic
+@@@
+font_size=11
+comment_font_size=0
+contents_font_size=0
+state_width=140
+state_height=20
+comment_block_height=45
+content_max_height=200
+comment_block_fixed=0
+line_space=-1
+userbutton_title=@@@
+copy
+@@@
+userbutton_command=@@@
+..\copykstotyrano.bat
+@@@
+userbutton_callafterconvert=1
+</t>
+  </si>
+  <si>
+    <t>; The setting was created automatically. 2019/05/19 11:18:34
+; * pssgEditor version : 0.52.682.e87166581b6135c42d0181986a68f00552912530
+psggfile=@@@
+TestControl.psgg
+@@@
+xlsfile=@@@
+TestControl.xlsx
+@@@
+guid=@@@
+09a6d521-3ea1-430a-b507-3b86e13f32ee
+@@@
+bitmap_width=5000
+bitmap_height=2000
+c_statec_cmt=1
+c_thumbnail=1
+c_contents=1
+force_display_outpin=0
+last_action=@@@
+Initilized
+@@@
+target_pathdir=@@@
+/
+@@@
+state_location_list=@@@
+@@@
+nodegroup_comment_list=@@@
+[{"Key":"\/","Value":"This is the root"},{"Key":"\/PREPARE\/","Value":"ゲーム準備"},{"Key":"\/Intoroduction\/","Value":""},{"Key":"\/Interest\/","Value":""},{"Key":"\/HALLWAY\/","Value":""},{"Key":"\/MUSIC\/","Value":""},{"Key":"\/FULLSCREEN\/","Value":""},{"Key":"\/MENUBTN\/","Value":""},{"Key":"\/EPLOGUE\/","Value":""},{"Key":"\/YAMATO\/","Value":""},{"Key":"\/BTNLINK\/","Value":""}]
+@@@
+nodegroup_pos_list=@@@
+[{"Key":"\/","Value":{"x":100,"y":-1}},{"Key":"\/PREPARE\/","Value":{"x":395,"y":88}},{"Key":"\/Intoroduction\/","Value":{"x":654,"y":27}},{"Key":"\/Interest\/","Value":{"x":1073,"y":17}},{"Key":"\/HALLWAY\/","Value":{"x":1298,"y":23}},{"Key":"\/MUSIC\/","Value":{"x":847,"y":375}},{"Key":"\/FULLSCREEN\/","Value":{"x":424,"y":371}},{"Key":"\/MENUBTN\/","Value":{"x":646,"y":359}},{"Key":"\/EPLOGUE\/","Value":{"x":1261,"y":392}},{"Key":"\/YAMATO\/","Value":{"x":1054,"y":383}},{"Key":"\/BTNLINK\/","Value":{"x":427,"y":528}}]
+@@@
+fillter_state_location_list=@@@
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":42,"y":17}},{"Key":"S_END","Value":{"x":117,"y":132}},{"Key":"S_FIRSTSTEP","Value":{"x":84,"y":236}},{"Key":"S_TITLE","Value":{"x":75,"y":490}},{"Key":"S_QUESTION","Value":{"x":879,"y":25}},{"Key":"____altnative_state____PREPARE","Value":{"x":395,"y":88}},{"Key":"____altnative_state____Intoroduction","Value":{"x":654,"y":27}},{"Key":"____altnative_state____Interest","Value":{"x":1073,"y":17}},{"Key":"____altnative_state____HALLWAY","Value":{"x":1298,"y":23}},{"Key":"____altnative_state____MUSIC","Value":{"x":847,"y":375}},{"Key":"____altnative_state____FULLSCREEN","Value":{"x":424,"y":371}},{"Key":"____altnative_state____MENUBTN","Value":{"x":646,"y":359}},{"Key":"____altnative_state____EPLOGUE","Value":{"x":1261,"y":392}},{"Key":"____altnative_state____YAMATO","Value":{"x":1054,"y":383}},{"Key":"____altnative_state____BTNLINK","Value":{"x":427,"y":528}}]},{"Key":"\/PREPARE\/","Value":[{"Key":"S_TITLE","Value":{"x":50,"y":100}},{"Key":"S_SHOW_MSGWINDOW","Value":{"x":1002,"y":22}},{"Key":"S_SETUP_AKANE","Value":{"x":30,"y":273}},{"Key":"S_SETUP_YAMATO","Value":{"x":442,"y":288}},{"Key":"S_SCENE_1","Value":{"x":219,"y":16}},{"Key":"S_DISP_MENU","Value":{"x":417,"y":16}},{"Key":"S_AKANE_EMOTION","Value":{"x":211,"y":287}},{"Key":"S_SET_CHARNAMEAREA","Value":{"x":1201,"y":23}},{"Key":"S_SETUP_MESSAGEWINDOW","Value":{"x":616,"y":13}},{"Key":"S_ADJUST_CHARAREGION","Value":{"x":810,"y":21}}]},{"Key":"\/Interest\/","Value":[{"Key":"S_QUESTION","Value":{"x":48,"y":29}},{"Key":"S_INTREST","Value":{"x":259,"y":19}},{"Key":"S_INTREST3","Value":{"x":888,"y":20}},{"Key":"S_INTREST7","Value":{"x":480,"y":288}},{"Key":"S_INTREST18","Value":{"x":250,"y":946}},{"Key":"S_INTREST13","Value":{"x":517,"y":558}},{"Key":"S_INTREST8","Value":{"x":711,"y":296}},{"Key":"S_INTREST15","Value":{"x":933,"y":565}},{"Key":"S_INTREST19","Value":{"x":481,"y":973}},{"Key":"S_INTREST4","Value":{"x":1105,"y":23}},{"Key":"S_INTREST10","Value":{"x":1144,"y":295}},{"Key":"S_INTREST17","Value":{"x":15,"y":935}},{"Key":"S_INTREST11","Value":{"x":40,"y":551}},{"Key":"S_INTREST9","Value":{"x":921,"y":297}},{"Key":"S_INTREST1","Value":{"x":474,"y":19}},{"Key":"S_INTREST5","Value":{"x":40,"y":297}},{"Key":"S_HALWAY","Value":{"x":863,"y":1003}},{"Key":"S_INTREST12","Value":{"x":288,"y":553}},{"Key":"S_INTREST2","Value":{"x":680,"y":19}},{"Key":"S_INTREST6","Value":{"x":268,"y":288}},{"Key":"S_INTREST16","Value":{"x":1132,"y":571}},{"Key":"S_INTREST14","Value":{"x":725,"y":609}}]},{"Key":"\/HALLWAY\/","Value":[{"Key":"S_HALWAY1","Value":{"x":459,"y":109}},{"Key":"S_INTREST19","Value":{"x":52,"y":77}},{"Key":"S_HALWAY3","Value":{"x":857,"y":109}},{"Key":"S_HALWAY","Value":{"x":238,"y":103}},{"Key":"S_HALWAY5","Value":{"x":1272,"y":115}},{"Key":"S_HALWAY4","Value":{"x":1062,"y":110}},{"Key":"S_HALWAY2","Value":{"x":660,"y":106}},{"Key":"S_FULLSCREEN","Value":{"x":1261,"y":428}}]},{"Key":"\/MENUBTN\/","Value":[{"Key":"S_MUSIC","Value":{"x":943,"y":173}},{"Key":"S_MENUBTN2","Value":{"x":675,"y":107}},{"Key":"S_MENUBTN1","Value":{"x":483,"y":107}},{"Key":"S_FULLSCREEN7","Value":{"x":54,"y":227}},{"Key":"S_MENUBTN","Value":{"x":276,"y":94}}]},{"Key":"\/YAMATO\/","Value":[{"Key":"S_MUSIC_END","Value":{"x":50,"y":100}},{"Key":"S_SHOW_YAMATO","Value":{"x":42,"y":315}},{"Key":"S_SHOW_YAMATO2","Value":{"x":439,"y":323}},{"Key":"S_SHOW_YAMATO1","Value":{"x":240,"y":317}},{"Key":"S_SHOW_YAMATO3","Value":{"x":642,"y":325}},{"Key":"S_EPILOGUE","Value":{"x":904,"y":325}}]},{"Key":"\/EPLOGUE\/","Value":[{"Key":"S_EPILOGUE3","Value":{"x":677,"y":255}},{"Key":"S_EPILOGUE1","Value":{"x":296,"y":253}},{"Key":"S_EPILOGUE2","Value":{"x":496,"y":255}},{"Key":"S_SHOW_YAMATO3","Value":{"x":47,"y":109}},{"Key":"S_EPILOGUE","Value":{"x":92,"y":249}},{"Key":"S_BTNLINK","Value":{"x":1104,"y":284}}]},{"Key":"\/BTNLINK\/","Value":[{"Key":"S_EPILOGUE3","Value":{"x":50,"y":100}},{"Key":"S_BL_TAG","Value":{"x":359,"y":1199}},{"Key":"S_BL_EXAMP","Value":{"x":554,"y":326}},{"Key":"S_JUMP_TO_BTNLINK","Value":{"x":1031,"y":409}},{"Key":"S_BL_TECH","Value":{"x":781,"y":695}},{"Key":"S_BL_INTRO","Value":{"x":332,"y":114}},{"Key":"S_BTNLINK1","Value":{"x":84,"y":461}},{"Key":"S_BTNLINK","Value":{"x":53,"y":83}},{"Key":"S_BL_INFO","Value":{"x":605,"y":1054}}]},{"Key":"\/MUSIC\/","Value":[{"Key":"S_PLAYMUSIC","Value":{"x":251,"y":282}},{"Key":"S_NOPLAYMUSIC","Value":{"x":264,"y":548}},{"Key":"S_MUSIC","Value":{"x":36,"y":242}},{"Key":"S_MENUBTN2","Value":{"x":39,"y":101}},{"Key":"S_MUSIC_END","Value":{"x":483,"y":292}},{"Key":"S_SHOW_YAMATO","Value":{"x":745,"y":292}}]}]
+@@@
+linecolor_data=@@@
+[{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"BTN_BY.\\("}]
+@@@
+use_external_command=0
+external_command=@@@
+@@@
+source_editor=@@@
+Code %1
+@@@
+source_editor_vs2015_support=1
+label_show=0
+label_text=@@@
+test
+@@@
+option_delete_thisstring=1
+option_delete_br_string=1
+option_delete_bracket_string=1
+option_delete_s_state_string=1
+option_copy_output_to_clipboard=0
+option_convert_with_confirm=0
+option_omit_basestate_string=0
+option_hide_basestate_contents=0
+option_hide_branchcmt_onbranchbox=0
+font_name=@@@
+MS UI Gothic
+@@@
+font_size=11
+comment_font_size=0
+contents_font_size=0
+state_width=140
+state_height=20
+comment_block_height=45
+content_max_height=200
+comment_block_fixed=0
+line_space=-1
+userbutton_title=@@@
+copy
+@@@
+userbutton_command=@@@
+..\copykstotyrano.bat
+@@@
+userbutton_callafterconvert=1
+</t>
+  </si>
+  <si>
+    <t>&lt;&lt;&lt;?state/^C_/
+eof&gt;&gt;&gt;
+;------------------------------
+;    [[state]]
+;    [[state-cmt]]
+&lt;&lt;&lt;?state/^E_/
+[[embed]]
+eof&gt;&gt;&gt;
+*[[state]]
+[iscript]
+    f.curstate = '[[state]]';
+    f.nextstate ='';
+    f.yesno=0;
+[endscript]
+&lt;&lt;&lt;?init
+[[init]]
+ &gt;&gt;&gt;
+&lt;&lt;&lt;?initscript
+[iscript]
+    [[initscript]]
+[endscript]
+&gt;&gt;&gt;
+&lt;&lt;&lt;?bg
+@bg storage="[[bg]]"
+&gt;&gt;&gt;
+&lt;&lt;&lt;?bgx
+[[bgx]]
+&gt;&gt;&gt;
+&lt;&lt;&lt;?chara_face
+[[chara_face]]
+&gt;&gt;&gt;
+&lt;&lt;&lt;?bg_after
+[[bg_after]]
+&gt;&gt;&gt;
+&lt;&lt;&lt;?button
+[iscript]
+    f.butval='';
+[endscript]
+[[button-&gt;@makebutton]]
+&gt;&gt;&gt;
+&lt;&lt;&lt;?glink
+[iscript]
+    f.glkval='';
+[endscript]
+[[glink-&gt;@makeglink]]
+&gt;&gt;&gt;
+&lt;&lt;&lt;?link
+[iscript]
+    f.lnkval='';
+[endscript]
+[[link-&gt;@makelink]]
+&gt;&gt;&gt;
+&lt;&lt;&lt;?clickable
+[iscript]
+    f.clkval='';
+[endscript]
+[[clickable-&gt;@makeclickable]]
+&gt;&gt;&gt;
+[[prewait]]
+[[wait]]
+*[[state]]___branch
+;
+; BRANCH
+;
+&lt;&lt;&lt;?branch
+[iscript]
+    [[branch]]
+[endscript]
+&gt;&gt;&gt;
+&lt;&lt;&lt;?nextstate
+[iscript]
+    if (f.nextstate == '') {
+        f.nextstate = '[[nextstate]]';
+    }
+[endscript]
+&gt;&gt;&gt;
+[jump target=&amp;f.nextstate]
+&lt;&lt;&lt;?button
+;
+; BUTTON LABEL
+;
+[[button-&gt;@makebuttonlabel]]
+&gt;&gt;&gt;
+&lt;&lt;&lt;?glink
+;
+; GLINK LABEL
+;
+[[glink-&gt;@makeglinklabel]]
+&gt;&gt;&gt;
+&lt;&lt;&lt;?link
+;
+; LINK LABEL
+;
+[[link-&gt;@makelinklabel]]
+&gt;&gt;&gt;
+&lt;&lt;&lt;?clickable
+;
+; CLICK LABEL
+;
+[[clickable-&gt;@makeclickablelabel]]
+&gt;&gt;&gt;
+;
+; END OF [[state]]
+;</t>
+  </si>
+  <si>
+    <t>; The setting was created automatically. 2019/05/19 11:21:17
 ; * pssgEditor version : 0.52.682.e87166581b6135c42d0181986a68f00552912530
 psggfile=@@@
 TestControl.psgg
@@ -1827,7 +2434,7 @@
 state_location_list=@@@
 @@@
 nodegroup_comment_list=@@@
-[{"Key":"\/","Value":"This is the root"},{"Key":"\/PREPARE\/","Value":"ゲーム準備"},{"Key":"\/Intoroduction\/","Value":null},{"Key":"\/Interest\/","Value":null},{"Key":"\/HALLWAY\/","Value":null},{"Key":"\/MUSIC\/","Value":null},{"Key":"\/FULLSCREEN\/","Value":null},{"Key":"\/MENUBTN\/","Value":null},{"Key":"\/EPLOGUE\/","Value":null},{"Key":"\/YAMATO\/","Value":null},{"Key":"\/BTNLINK\/","Value":null}]
+[{"Key":"\/","Value":"This is the root"},{"Key":"\/PREPARE\/","Value":"ゲーム準備"},{"Key":"\/Intoroduction\/","Value":""},{"Key":"\/Interest\/","Value":""},{"Key":"\/HALLWAY\/","Value":""},{"Key":"\/MUSIC\/","Value":""},{"Key":"\/FULLSCREEN\/","Value":""},{"Key":"\/MENUBTN\/","Value":""},{"Key":"\/EPLOGUE\/","Value":""},{"Key":"\/YAMATO\/","Value":""},{"Key":"\/BTNLINK\/","Value":""}]
 @@@
 nodegroup_pos_list=@@@
 [{"Key":"\/","Value":{"x":100,"y":-1}},{"Key":"\/PREPARE\/","Value":{"x":395,"y":88}},{"Key":"\/Intoroduction\/","Value":{"x":654,"y":27}},{"Key":"\/Interest\/","Value":{"x":1073,"y":17}},{"Key":"\/HALLWAY\/","Value":{"x":1298,"y":23}},{"Key":"\/MUSIC\/","Value":{"x":847,"y":375}},{"Key":"\/FULLSCREEN\/","Value":{"x":424,"y":371}},{"Key":"\/MENUBTN\/","Value":{"x":646,"y":359}},{"Key":"\/EPLOGUE\/","Value":{"x":1261,"y":392}},{"Key":"\/YAMATO\/","Value":{"x":1054,"y":383}},{"Key":"\/BTNLINK\/","Value":{"x":427,"y":528}}]
@@ -2081,7 +2688,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="6" fillId="8" borderId="1" xfId="6" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center" wrapText="true"/>
@@ -2119,13 +2726,7 @@
     <xf numFmtId="49" fontId="6" fillId="13" borderId="1" xfId="3" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="13" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment wrapText="true"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="14" borderId="1" xfId="5" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="14" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment wrapText="true"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="11" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
@@ -2420,20 +3021,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CI43"/>
+  <dimension ref="A1:CI44"/>
   <sheetViews>
     <sheetView tabSelected="false" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="BW18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A22" sqref="A22:XFD22"/>
+      <selection pane="bottomRight" activeCell="BW30" sqref="BW30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="2" width="15.625" style="17"/>
-    <col min="3" max="3" width="26.875" style="17" customWidth="true"/>
-    <col min="4" max="16384" width="15.625" style="17"/>
+    <col min="1" max="2" width="15.625" style="15"/>
+    <col min="3" max="3" width="26.875" style="15" customWidth="true"/>
+    <col min="4" max="16384" width="15.625" style="15"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="144.75" customHeight="true">
@@ -2683,223 +3284,223 @@
         <v>4</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q2" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>68</v>
-      </c>
       <c r="R2" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="U2" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="S2" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>106</v>
-      </c>
       <c r="V2" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="AA2" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="AC2" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="AD2" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="AE2" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="AG2" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="AH2" s="3" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="AI2" s="3" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="AJ2" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="AK2" s="3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="AL2" s="3" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="AM2" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AN2" s="3" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="AO2" s="3" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="AP2" s="3" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="AQ2" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="AR2" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="AS2" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="AT2" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="AR2" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="AS2" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="AT2" s="3" t="s">
+      <c r="AU2" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="AU2" s="3" t="s">
-        <v>198</v>
-      </c>
       <c r="AV2" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="AW2" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="AY2" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="AZ2" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="AZ2" s="3" t="s">
+      <c r="BA2" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="BA2" s="3" t="s">
-        <v>242</v>
-      </c>
       <c r="BC2" s="3" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="BD2" s="3" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="BE2" s="3" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="BF2" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="BG2" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="BH2" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="BG2" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="BH2" s="3" t="s">
-        <v>237</v>
-      </c>
       <c r="BI2" s="3" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="BJ2" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="BK2" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="BK2" s="3" t="s">
-        <v>278</v>
-      </c>
       <c r="BL2" s="3" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="BM2" s="3" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="BN2" s="3" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="BR2" s="3" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="BS2" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="BT2" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="BU2" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="BV2" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="BW2" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="BT2" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="BU2" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="BV2" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="BW2" s="3" t="s">
-        <v>306</v>
-      </c>
       <c r="BX2" s="3" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="BY2" s="3" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="CB2" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="CC2" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="CD2" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="CE2" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="CC2" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="CD2" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="CE2" s="3" t="s">
-        <v>336</v>
-      </c>
       <c r="CF2" s="3" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="CG2" s="3" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="CH2" s="3" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="CI2" s="3" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
     </row>
     <row r="3" s="7" customFormat="true" ht="56.25">
@@ -2913,28 +3514,28 @@
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="G3" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AB3" s="5" t="s">
         <v>27</v>
@@ -2979,215 +3580,215 @@
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P5" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q5" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="R5" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="S5" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="U5" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="W5" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="X5" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="Y5" s="8" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="Z5" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA5" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="AC5" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD5" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="AE5" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="AF5" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="AG5" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="AH5" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="AI5" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="AJ5" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="AK5" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="AL5" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="AM5" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="AN5" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="AO5" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="AP5" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="AQ5" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="AR5" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="AS5" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="AA5" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="AC5" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="AD5" s="8" t="s">
+      <c r="AT5" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="AU5" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="AV5" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="AW5" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="AE5" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="AF5" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="AG5" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="AH5" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="AI5" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="AJ5" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="AK5" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="AL5" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="AM5" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="AN5" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="AO5" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="AP5" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="AQ5" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="AR5" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="AS5" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="AT5" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="AU5" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="AV5" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="AW5" s="8" t="s">
-        <v>162</v>
-      </c>
       <c r="AY5" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="AZ5" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="AZ5" s="8" t="s">
-        <v>237</v>
-      </c>
       <c r="BA5" s="8" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="BD5" s="8" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="BE5" s="8" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="BF5" s="8" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="BG5" s="8" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="BH5" s="8" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="BI5" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="BJ5" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="BK5" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="BL5" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="BM5" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="BJ5" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="BK5" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="BL5" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="BM5" s="8" t="s">
-        <v>278</v>
-      </c>
       <c r="BN5" s="8" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="BR5" s="8" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="BS5" s="8" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="BT5" s="8" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="BU5" s="8" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="BV5" s="8" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="BW5" s="8" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="BX5" s="8" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="BY5" s="8" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="CB5" s="8" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="CC5" s="8" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="CD5" s="8" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="CE5" s="8" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="CF5" s="8" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="CH5" s="8" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="CI5" s="8" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
     </row>
     <row r="6" s="11" customFormat="true">
@@ -3210,208 +3811,208 @@
         <v>26</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N7" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O7" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P7" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Q7" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="R7" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="S7" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="U7" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="V7" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="W7" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="X7" s="10" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="Y7" s="10" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="Z7" s="10" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="AA7" s="10" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AC7" s="10" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="AD7" s="10" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="AE7" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF7" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="AF7" s="10" t="s">
-        <v>168</v>
-      </c>
       <c r="AG7" s="10" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="AH7" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="AI7" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="AI7" s="10" t="s">
-        <v>180</v>
-      </c>
       <c r="AJ7" s="10" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="AK7" s="10" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="AL7" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="AM7" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="AM7" s="10" t="s">
+      <c r="AN7" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="AN7" s="10" t="s">
-        <v>199</v>
-      </c>
       <c r="AO7" s="10" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="AP7" s="10" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="AQ7" s="10" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="AR7" s="10" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="AS7" s="10" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="AT7" s="10" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="AU7" s="10" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="AV7" s="10" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="AW7" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="AY7" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="AY7" s="10" t="s">
+      <c r="AZ7" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="AZ7" s="10" t="s">
-        <v>238</v>
-      </c>
       <c r="BA7" s="10" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="BD7" s="10" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="BE7" s="10" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="BF7" s="10" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="BG7" s="10" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="BH7" s="10" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="BI7" s="10" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="BJ7" s="10" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="BK7" s="10" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="BL7" s="10" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="BM7" s="10" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="BN7" s="10" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="BR7" s="10" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="BS7" s="10" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="BT7" s="10" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="BU7" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="BV7" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="BW7" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="BV7" s="10" t="s">
-        <v>313</v>
-      </c>
-      <c r="BW7" s="10" t="s">
-        <v>316</v>
-      </c>
       <c r="BX7" s="10" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="BY7" s="10" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="CB7" s="10" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="CC7" s="10" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="CE7" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="CF7" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="CH7" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="CF7" s="10" t="s">
-        <v>340</v>
-      </c>
-      <c r="CH7" s="10" t="s">
-        <v>347</v>
-      </c>
       <c r="CI7" s="10" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
     </row>
     <row r="8" s="11" customFormat="true" ht="131.25">
@@ -3423,7 +4024,7 @@
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
       <c r="N8" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" s="11" customFormat="true" ht="18.75" customHeight="true">
@@ -3460,7 +4061,7 @@
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
       <c r="M12" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" s="11" customFormat="true" ht="18.75" customHeight="true">
@@ -3479,10 +4080,10 @@
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
       <c r="G14" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" s="11" customFormat="true" ht="37.5">
@@ -3494,7 +4095,7 @@
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
       <c r="AO15" s="10" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="16" s="11" customFormat="true" ht="18.75" customHeight="true">
@@ -3529,7 +4130,7 @@
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
       <c r="G19" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" s="11" customFormat="true" ht="18.75" customHeight="true">
@@ -3571,10 +4172,10 @@
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
       <c r="V24" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="CG24" s="10" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="25" s="11" customFormat="true" ht="18.75" customHeight="true">
@@ -3586,7 +4187,7 @@
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
       <c r="V25" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26" s="11" customFormat="true" ht="18.75" customHeight="true">
@@ -3605,7 +4206,7 @@
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
       <c r="BC27" s="10" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="28" s="11" customFormat="true" ht="18.75" customHeight="true">
@@ -3658,783 +4259,2642 @@
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
     </row>
-    <row r="34" s="11" customFormat="true" ht="18.75" customHeight="true">
-      <c r="A34" s="10"/>
+    <row r="34" s="10" customFormat="true" ht="18.75" customHeight="true">
       <c r="B34" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="G34" s="15" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="35" s="10" customFormat="true" ht="18.75" customHeight="true">
+      <c r="A35" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10" t="s">
+      <c r="C35" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E35" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G34" s="10" t="s">
-        <v>370</v>
-      </c>
-      <c r="V34" s="10" t="s">
+      <c r="F35" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G35" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="BC34" s="10" t="s">
+      <c r="H35" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I35" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="J35" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="K35" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L35" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="M35" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="N35" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="O35" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="P35" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q35" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="R35" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="S35" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="T35" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="U35" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="V35" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="CG34" s="10" t="s">
+      <c r="W35" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="X35" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y35" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z35" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA35" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB35" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC35" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD35" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE35" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF35" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG35" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH35" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AI35" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AJ35" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AK35" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AL35" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM35" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AN35" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AO35" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AP35" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AQ35" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AR35" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AS35" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AT35" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AU35" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AV35" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AW35" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AX35" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AY35" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AZ35" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="BA35" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="BB35" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="BC35" s="10" t="s">
         <v>24</v>
       </c>
+      <c r="BD35" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="BE35" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="BF35" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="BG35" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="BH35" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="BI35" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="BJ35" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="BK35" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="BL35" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="BM35" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="BN35" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="BO35" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="BP35" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="BQ35" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="BR35" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="BS35" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="BT35" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="BU35" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="BV35" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="BW35" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="BX35" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="BY35" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="BZ35" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="CA35" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="CB35" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="CC35" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="CD35" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="CE35" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="CF35" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="CG35" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="CH35" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="CI35" s="10" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="35" s="11" customFormat="true" ht="18.75" customHeight="true">
-      <c r="A35" s="10"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
+    <row r="36" s="10" customFormat="true" ht="18.75" customHeight="true">
+      <c r="A36" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H36" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I36" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="J36" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="K36" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L36" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="M36" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="N36" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="O36" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="P36" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q36" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="R36" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="S36" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="T36" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="U36" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="V36" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="W36" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="X36" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y36" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z36" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA36" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB36" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC36" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD36" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE36" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF36" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG36" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH36" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AI36" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AJ36" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AK36" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AL36" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM36" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AN36" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AO36" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AP36" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AQ36" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AR36" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AS36" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AT36" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AU36" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AV36" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AW36" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AX36" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AY36" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AZ36" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="BA36" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="BB36" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="BC36" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="BD36" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="BE36" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="BF36" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="BG36" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="BH36" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="BI36" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="BJ36" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="BK36" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="BL36" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="BM36" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="BN36" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="BO36" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="BP36" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="BQ36" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="BR36" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="BS36" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="BT36" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="BU36" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="BV36" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="BW36" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="BX36" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="BY36" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="BZ36" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="CA36" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="CB36" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="CC36" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="CD36" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="CE36" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="CF36" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="CG36" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="CH36" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="CI36" s="10" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="36" s="11" customFormat="true">
-      <c r="A36" s="10"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
+    <row r="37" s="10" customFormat="true" ht="18.75" customHeight="true">
+      <c r="A37" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H37" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I37" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="J37" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="K37" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L37" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="M37" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="N37" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="O37" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="P37" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q37" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="R37" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="S37" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="T37" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="U37" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="V37" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="W37" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="X37" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y37" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z37" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA37" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB37" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC37" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD37" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE37" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF37" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG37" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH37" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AI37" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AJ37" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AK37" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AL37" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM37" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AN37" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AO37" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AP37" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AQ37" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AR37" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AS37" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AT37" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AU37" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AV37" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AW37" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AX37" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AY37" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AZ37" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="BA37" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="BB37" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="BC37" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="BD37" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="BE37" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="BF37" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="BG37" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="BH37" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="BI37" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="BJ37" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="BK37" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="BL37" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="BM37" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="BN37" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="BO37" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="BP37" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="BQ37" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="BR37" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="BS37" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="BT37" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="BU37" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="BV37" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="BW37" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="BX37" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="BY37" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="BZ37" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="CA37" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="CB37" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="CC37" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="CD37" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="CE37" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="CF37" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="CG37" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="CH37" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="CI37" s="10" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="37" s="13" customFormat="true" ht="187.5">
-      <c r="A37" s="12"/>
-      <c r="B37" s="12" t="s">
+    <row r="38" s="12" customFormat="true" ht="187.5" customHeight="true">
+      <c r="A38" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B38" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G37" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="V37" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="BC37" s="12" t="s">
-        <v>365</v>
-      </c>
-      <c r="CG37" s="12" t="s">
-        <v>360</v>
+      <c r="C38" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H38" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I38" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="J38" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="K38" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="L38" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="M38" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="N38" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="O38" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="P38" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q38" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="R38" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="S38" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="T38" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="U38" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="V38" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="W38" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="X38" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y38" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z38" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA38" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB38" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC38" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD38" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE38" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF38" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG38" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH38" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AI38" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AJ38" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AK38" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AL38" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM38" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AN38" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AO38" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AP38" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AQ38" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AR38" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AS38" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AT38" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AU38" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AV38" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AW38" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AX38" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AY38" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AZ38" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="BA38" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="BB38" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="BC38" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="BD38" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="BE38" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="BF38" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="BG38" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="BH38" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="BI38" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="BJ38" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="BK38" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="BL38" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="BM38" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="BN38" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="BO38" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="BP38" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="BQ38" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="BR38" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="BS38" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="BT38" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="BU38" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="BV38" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="BW38" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="BX38" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="BY38" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="BZ38" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="CA38" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="CB38" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="CC38" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="CD38" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="CE38" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="CF38" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="CG38" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="CH38" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="CI38" s="12" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="38" s="13" customFormat="true" ht="150">
-      <c r="A38" s="12"/>
-      <c r="B38" s="12" t="s">
+    <row r="39" s="12" customFormat="true" ht="150" customHeight="true">
+      <c r="A39" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B39" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="G38" s="12" t="s">
+      <c r="C39" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="H39" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I39" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="J39" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="K39" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="L39" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="M39" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="N39" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="O39" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="P39" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q39" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="R39" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="S39" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="T39" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="U39" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="V39" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="W39" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="X39" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y39" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z39" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA39" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB39" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC39" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD39" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE39" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF39" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG39" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH39" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AI39" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AJ39" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AK39" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AL39" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM39" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AN39" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AO39" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AP39" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AQ39" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AR39" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AS39" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AT39" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AU39" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AV39" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AW39" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AX39" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AY39" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AZ39" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="BA39" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="BB39" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="BC39" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="BD39" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="BE39" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="BF39" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="BG39" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="BH39" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="BI39" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="BJ39" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="BK39" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="BL39" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="BM39" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="BN39" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="BO39" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="BP39" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="BQ39" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="BR39" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="BS39" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="BT39" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="BU39" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="BV39" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="BW39" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="BX39" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="BY39" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="BZ39" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="CA39" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="CB39" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="CC39" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="CD39" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="CE39" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="CF39" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="CG39" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="CH39" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="CI39" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" s="13" customFormat="true" ht="18.75" customHeight="true">
+      <c r="A40" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F40" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G40" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H40" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I40" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J40" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K40" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L40" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="M40" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="N40" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="O40" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="P40" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q40" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="R40" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="S40" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="T40" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="U40" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="V40" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="W40" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="X40" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y40" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z40" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA40" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB40" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC40" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD40" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE40" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF40" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG40" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH40" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AI40" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AJ40" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AK40" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AL40" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM40" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AN40" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AO40" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AP40" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AQ40" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AR40" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AS40" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AT40" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AU40" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AV40" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AW40" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AX40" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AY40" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AZ40" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="BA40" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="BB40" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="BC40" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="BD40" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="BE40" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="BF40" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="BG40" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="BH40" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="BI40" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="BJ40" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="BK40" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="BL40" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="BM40" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="BN40" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="BO40" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="BP40" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="BQ40" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="BR40" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="BS40" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="BT40" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="BU40" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="BV40" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="BW40" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="BX40" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="BY40" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="BZ40" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="CA40" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="CB40" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="CC40" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="CD40" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="CE40" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="CF40" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="CG40" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="CH40" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="CI40" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" s="14" customFormat="true" ht="18.75" customHeight="true">
+      <c r="A41" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E41" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F41" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G41" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H41" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="I41" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="J41" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="K41" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="L41" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="M41" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="N41" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="O41" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="P41" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q41" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="R41" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="S41" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="T41" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="U41" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="V41" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="W41" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="X41" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y41" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z41" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA41" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB41" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC41" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD41" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE41" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF41" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG41" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH41" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="AI41" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="AJ41" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="AK41" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="AL41" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM41" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="AN41" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="AO41" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="AP41" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="AQ41" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="AR41" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="AS41" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="AT41" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="AU41" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="AV41" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="AW41" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="AX41" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="AY41" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="AZ41" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="BA41" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="BB41" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="BC41" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="BD41" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="BE41" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="BF41" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="BG41" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="BH41" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="BI41" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="BJ41" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="BK41" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="BL41" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="BM41" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="BN41" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="BO41" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="BP41" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="BQ41" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="BR41" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="BS41" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="BT41" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="BU41" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="BV41" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="BW41" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="BX41" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="BY41" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="BZ41" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="CA41" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="CB41" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="CC41" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="CD41" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="CE41" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="CF41" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="CG41" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="CH41" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="CI41" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" s="14" customFormat="true" ht="56.25" customHeight="true">
+      <c r="A42" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D42" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="V38" s="12" t="s">
+      <c r="E42" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F42" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="G42" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="H42" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="BC38" s="12" t="s">
-        <v>366</v>
-      </c>
-      <c r="CG38" s="12" t="s">
-        <v>361</v>
+      <c r="I42" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="J42" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="K42" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="L42" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="M42" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="N42" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="O42" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="P42" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q42" s="14" t="s">
+        <v>372</v>
+      </c>
+      <c r="R42" s="14" t="s">
+        <v>372</v>
+      </c>
+      <c r="S42" s="14" t="s">
+        <v>372</v>
+      </c>
+      <c r="T42" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="U42" s="14" t="s">
+        <v>372</v>
+      </c>
+      <c r="V42" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="W42" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="X42" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="Y42" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="Z42" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="AA42" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="AB42" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC42" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="AD42" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="AE42" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="AF42" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="AG42" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="AH42" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="AI42" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="AJ42" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="AK42" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="AL42" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="AM42" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="AN42" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="AO42" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="AP42" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="AQ42" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="AR42" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="AS42" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="AT42" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="AU42" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="AV42" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="AW42" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="AX42" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="AY42" s="14" t="s">
+        <v>375</v>
+      </c>
+      <c r="AZ42" s="14" t="s">
+        <v>376</v>
+      </c>
+      <c r="BA42" s="14" t="s">
+        <v>375</v>
+      </c>
+      <c r="BB42" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="BC42" s="14" t="s">
+        <v>375</v>
+      </c>
+      <c r="BD42" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="BE42" s="14" t="s">
+        <v>376</v>
+      </c>
+      <c r="BF42" s="14" t="s">
+        <v>375</v>
+      </c>
+      <c r="BG42" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="BH42" s="14" t="s">
+        <v>376</v>
+      </c>
+      <c r="BI42" s="14" t="s">
+        <v>376</v>
+      </c>
+      <c r="BJ42" s="14" t="s">
+        <v>376</v>
+      </c>
+      <c r="BK42" s="14" t="s">
+        <v>376</v>
+      </c>
+      <c r="BL42" s="14" t="s">
+        <v>376</v>
+      </c>
+      <c r="BM42" s="14" t="s">
+        <v>376</v>
+      </c>
+      <c r="BN42" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="BO42" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="BP42" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="BQ42" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="BR42" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="BS42" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="BT42" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="BU42" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="BV42" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="BW42" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="BX42" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="BY42" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="BZ42" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="CA42" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="CB42" s="14" t="s">
+        <v>380</v>
+      </c>
+      <c r="CC42" s="14" t="s">
+        <v>380</v>
+      </c>
+      <c r="CD42" s="14" t="s">
+        <v>380</v>
+      </c>
+      <c r="CE42" s="14" t="s">
+        <v>380</v>
+      </c>
+      <c r="CF42" s="14" t="s">
+        <v>380</v>
+      </c>
+      <c r="CG42" s="14" t="s">
+        <v>380</v>
+      </c>
+      <c r="CH42" s="14" t="s">
+        <v>380</v>
+      </c>
+      <c r="CI42" s="14" t="s">
+        <v>380</v>
       </c>
     </row>
-    <row r="39" s="15" customFormat="true" ht="18.75" customHeight="true">
-      <c r="A39" s="14"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
+    <row r="43" s="14" customFormat="true" ht="18.75" customHeight="true">
+      <c r="A43" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E43" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="F43" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="G43" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="H43" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="I43" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="J43" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="K43" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="L43" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="M43" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="N43" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="O43" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="P43" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q43" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="R43" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="S43" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="T43" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="U43" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="V43" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="W43" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="X43" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y43" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z43" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="AA43" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="AB43" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC43" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="AD43" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE43" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF43" s="14" t="s">
+        <v>344</v>
+      </c>
+      <c r="AG43" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="AH43" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="AI43" s="14" t="s">
+        <v>345</v>
+      </c>
+      <c r="AJ43" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="AK43" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="AL43" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="AM43" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="AN43" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="AO43" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="AP43" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="AQ43" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="AR43" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="AS43" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="AT43" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="AU43" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="AV43" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="AW43" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="AX43" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="AY43" s="14" t="s">
+        <v>353</v>
+      </c>
+      <c r="AZ43" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="BA43" s="14" t="s">
+        <v>354</v>
+      </c>
+      <c r="BB43" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="BC43" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="BD43" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="BE43" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="BF43" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="BG43" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="BH43" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="BI43" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="BJ43" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="BK43" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="BL43" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="BM43" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="BN43" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="BO43" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="BP43" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="BQ43" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="BR43" s="14" t="s">
+        <v>288</v>
+      </c>
+      <c r="BS43" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="BT43" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="BU43" s="14" t="s">
+        <v>300</v>
+      </c>
+      <c r="BV43" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="BW43" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="BX43" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="BY43" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="BZ43" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="CA43" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="CB43" s="14" t="s">
+        <v>347</v>
+      </c>
+      <c r="CC43" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="CD43" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="CE43" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="CF43" s="14" t="s">
+        <v>331</v>
+      </c>
+      <c r="CG43" s="14" t="s">
+        <v>335</v>
+      </c>
+      <c r="CH43" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="CI43" s="14" t="s">
+        <v>352</v>
+      </c>
     </row>
-    <row r="40" s="16" customFormat="true"/>
-    <row r="41" s="16" customFormat="true" ht="56.25">
-      <c r="B41" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D41" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="E41" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="F41" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="G41" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="H41" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="I41" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="J41" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="K41" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="L41" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="M41" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="N41" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="O41" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="P41" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q41" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="R41" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="S41" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="U41" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="V41" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="W41" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="X41" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="Y41" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="Z41" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="AA41" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="AC41" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="AD41" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="AE41" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="AF41" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="AG41" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="AH41" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="AI41" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="AJ41" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="AK41" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="AL41" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="AM41" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="AN41" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="AO41" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="AP41" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="AQ41" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="AR41" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="AS41" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="AT41" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="AU41" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="AV41" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="AW41" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="AY41" s="16" t="s">
-        <v>234</v>
-      </c>
-      <c r="AZ41" s="16" t="s">
-        <v>239</v>
-      </c>
-      <c r="BA41" s="16" t="s">
-        <v>234</v>
-      </c>
-      <c r="BC41" s="16" t="s">
-        <v>234</v>
-      </c>
-      <c r="BD41" s="16" t="s">
-        <v>251</v>
-      </c>
-      <c r="BE41" s="16" t="s">
-        <v>239</v>
-      </c>
-      <c r="BF41" s="16" t="s">
-        <v>234</v>
-      </c>
-      <c r="BG41" s="16" t="s">
-        <v>251</v>
-      </c>
-      <c r="BH41" s="16" t="s">
-        <v>239</v>
-      </c>
-      <c r="BI41" s="16" t="s">
-        <v>239</v>
-      </c>
-      <c r="BJ41" s="16" t="s">
-        <v>239</v>
-      </c>
-      <c r="BK41" s="16" t="s">
-        <v>239</v>
-      </c>
-      <c r="BL41" s="16" t="s">
-        <v>239</v>
-      </c>
-      <c r="BM41" s="16" t="s">
-        <v>239</v>
-      </c>
-      <c r="BN41" s="16" t="s">
-        <v>251</v>
-      </c>
-      <c r="BR41" s="16" t="s">
-        <v>295</v>
-      </c>
-      <c r="BS41" s="16" t="s">
-        <v>295</v>
-      </c>
-      <c r="BT41" s="16" t="s">
-        <v>295</v>
-      </c>
-      <c r="BU41" s="16" t="s">
-        <v>308</v>
-      </c>
-      <c r="BV41" s="16" t="s">
-        <v>308</v>
-      </c>
-      <c r="BW41" s="16" t="s">
-        <v>308</v>
-      </c>
-      <c r="BX41" s="16" t="s">
-        <v>308</v>
-      </c>
-      <c r="BY41" s="16" t="s">
-        <v>295</v>
-      </c>
-      <c r="CB41" s="16" t="s">
-        <v>329</v>
-      </c>
-      <c r="CC41" s="16" t="s">
-        <v>329</v>
-      </c>
-      <c r="CD41" s="16" t="s">
-        <v>329</v>
-      </c>
-      <c r="CE41" s="16" t="s">
-        <v>329</v>
-      </c>
-      <c r="CF41" s="16" t="s">
-        <v>329</v>
-      </c>
-      <c r="CG41" s="16" t="s">
-        <v>329</v>
-      </c>
-      <c r="CH41" s="16" t="s">
-        <v>329</v>
-      </c>
-      <c r="CI41" s="16" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="42" s="16" customFormat="true">
-      <c r="B42" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D42" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="E42" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="F42" s="16" t="s">
+    <row r="44" s="14" customFormat="true" ht="18.75" customHeight="true">
+      <c r="A44" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D44" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E44" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F44" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="G42" s="16" t="s">
+      <c r="G44" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="H42" s="16" t="s">
+      <c r="H44" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="I42" s="16" t="s">
+      <c r="I44" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="J42" s="16" t="s">
+      <c r="J44" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="K42" s="16" t="s">
+      <c r="K44" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="L42" s="16" t="s">
+      <c r="L44" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="M42" s="16" t="s">
+      <c r="M44" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="N42" s="16" t="s">
+      <c r="N44" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="O42" s="16" t="s">
+      <c r="O44" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="P42" s="16" t="s">
+      <c r="P44" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="Q42" s="16" t="s">
+      <c r="Q44" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="R42" s="16" t="s">
+      <c r="R44" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="S42" s="16" t="s">
+      <c r="S44" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="U42" s="16" t="s">
+      <c r="T44" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="U44" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="V42" s="16" t="s">
+      <c r="V44" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="W42" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="X42" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="Y42" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="Z42" s="16" t="s">
-        <v>353</v>
-      </c>
-      <c r="AA42" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="AC42" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="AD42" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="AE42" s="16" t="s">
+      <c r="W44" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="X44" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y44" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z44" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA44" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="AB44" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC44" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="AD44" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="AE44" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="AF44" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="AF42" s="16" t="s">
-        <v>354</v>
-      </c>
-      <c r="AG42" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="AH42" s="16" t="s">
+      <c r="AG44" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="AH44" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="AI44" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="AI42" s="16" t="s">
-        <v>355</v>
-      </c>
-      <c r="AJ42" s="16" t="s">
+      <c r="AJ44" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="AK44" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="AK42" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="AL42" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="AM42" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="AN42" s="16" t="s">
-        <v>200</v>
-      </c>
-      <c r="AO42" s="16" t="s">
-        <v>204</v>
-      </c>
-      <c r="AP42" s="16" t="s">
+      <c r="AL44" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="AM44" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="AN44" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="AO44" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="AP44" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="AQ44" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="AQ42" s="16" t="s">
+      <c r="AR44" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="AR42" s="16" t="s">
+      <c r="AS44" s="14" t="s">
         <v>215</v>
       </c>
-      <c r="AS42" s="16" t="s">
+      <c r="AT44" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="AT42" s="16" t="s">
+      <c r="AU44" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="AU42" s="16" t="s">
+      <c r="AV44" s="14" t="s">
         <v>224</v>
       </c>
-      <c r="AV42" s="16" t="s">
-        <v>227</v>
-      </c>
-      <c r="AW42" s="16" t="s">
-        <v>356</v>
-      </c>
-      <c r="AY42" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="AZ42" s="16" t="s">
-        <v>240</v>
-      </c>
-      <c r="BA42" s="16" t="s">
-        <v>364</v>
-      </c>
-      <c r="BC42" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="BD42" s="16" t="s">
-        <v>252</v>
-      </c>
-      <c r="BE42" s="16" t="s">
-        <v>256</v>
-      </c>
-      <c r="BF42" s="16" t="s">
-        <v>260</v>
-      </c>
-      <c r="BG42" s="16" t="s">
-        <v>264</v>
-      </c>
-      <c r="BH42" s="16" t="s">
-        <v>268</v>
-      </c>
-      <c r="BI42" s="16" t="s">
-        <v>273</v>
-      </c>
-      <c r="BJ42" s="16" t="s">
-        <v>276</v>
-      </c>
-      <c r="BK42" s="16" t="s">
+      <c r="AW44" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="AX44" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="AY44" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="AZ44" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="BA44" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="BB44" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="BC44" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="BD44" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="BE44" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="BF44" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="BG44" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="BH44" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="BI44" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="BJ44" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="BK44" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="BL44" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="BM44" s="14" t="s">
         <v>281</v>
       </c>
-      <c r="BL42" s="16" t="s">
+      <c r="BN44" s="14" t="s">
         <v>284</v>
       </c>
-      <c r="BM42" s="16" t="s">
-        <v>287</v>
-      </c>
-      <c r="BN42" s="16" t="s">
-        <v>290</v>
-      </c>
-      <c r="BR42" s="16" t="s">
-        <v>296</v>
-      </c>
-      <c r="BS42" s="16" t="s">
+      <c r="BO44" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="BP44" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="BQ44" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="BR44" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="BS44" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="BT44" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="BU44" s="14" t="s">
         <v>301</v>
       </c>
-      <c r="BT42" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="BU42" s="16" t="s">
+      <c r="BV44" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="BW44" s="14" t="s">
         <v>309</v>
       </c>
-      <c r="BV42" s="16" t="s">
-        <v>314</v>
-      </c>
-      <c r="BW42" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="BX42" s="16" t="s">
-        <v>321</v>
-      </c>
-      <c r="BY42" s="16" t="s">
-        <v>324</v>
-      </c>
-      <c r="CB42" s="16" t="s">
-        <v>357</v>
-      </c>
-      <c r="CC42" s="16" t="s">
-        <v>358</v>
-      </c>
-      <c r="CD42" s="16" t="s">
-        <v>334</v>
-      </c>
-      <c r="CE42" s="16" t="s">
-        <v>359</v>
-      </c>
-      <c r="CF42" s="16" t="s">
-        <v>341</v>
-      </c>
-      <c r="CG42" s="16" t="s">
-        <v>345</v>
-      </c>
-      <c r="CH42" s="16" t="s">
-        <v>348</v>
-      </c>
-      <c r="CI42" s="16" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="43" s="16" customFormat="true">
-      <c r="B43" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D43" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="E43" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F43" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="G43" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="H43" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="I43" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="J43" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="K43" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="L43" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="M43" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="N43" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="O43" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="P43" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q43" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="R43" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="S43" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="U43" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="V43" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="W43" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="X43" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y43" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="Z43" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="AA43" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="AC43" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD43" s="16" t="s">
-        <v>161</v>
-      </c>
-      <c r="AE43" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="AF43" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="AG43" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="AH43" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="AI43" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="AJ43" s="16" t="s">
-        <v>185</v>
-      </c>
-      <c r="AK43" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="AL43" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="AM43" s="16" t="s">
-        <v>197</v>
-      </c>
-      <c r="AN43" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="AO43" s="16" t="s">
-        <v>205</v>
-      </c>
-      <c r="AP43" s="16" t="s">
-        <v>210</v>
-      </c>
-      <c r="AQ43" s="16" t="s">
-        <v>213</v>
-      </c>
-      <c r="AR43" s="16" t="s">
-        <v>216</v>
-      </c>
-      <c r="AS43" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="AT43" s="16" t="s">
-        <v>222</v>
-      </c>
-      <c r="AU43" s="16" t="s">
-        <v>225</v>
-      </c>
-      <c r="AV43" s="16" t="s">
-        <v>228</v>
-      </c>
-      <c r="AW43" s="16" t="s">
-        <v>230</v>
-      </c>
-      <c r="AY43" s="16" t="s">
-        <v>235</v>
-      </c>
-      <c r="AZ43" s="16" t="s">
-        <v>241</v>
-      </c>
-      <c r="BA43" s="16" t="s">
-        <v>244</v>
-      </c>
-      <c r="BC43" s="16" t="s">
-        <v>248</v>
-      </c>
-      <c r="BD43" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="BE43" s="16" t="s">
-        <v>257</v>
-      </c>
-      <c r="BF43" s="16" t="s">
-        <v>261</v>
-      </c>
-      <c r="BG43" s="16" t="s">
-        <v>265</v>
-      </c>
-      <c r="BH43" s="16" t="s">
-        <v>269</v>
-      </c>
-      <c r="BI43" s="16" t="s">
-        <v>274</v>
-      </c>
-      <c r="BJ43" s="16" t="s">
-        <v>277</v>
-      </c>
-      <c r="BK43" s="16" t="s">
-        <v>282</v>
-      </c>
-      <c r="BL43" s="16" t="s">
-        <v>285</v>
-      </c>
-      <c r="BM43" s="16" t="s">
-        <v>288</v>
-      </c>
-      <c r="BN43" s="16" t="s">
-        <v>291</v>
-      </c>
-      <c r="BR43" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="BS43" s="16" t="s">
-        <v>302</v>
-      </c>
-      <c r="BT43" s="16" t="s">
-        <v>305</v>
-      </c>
-      <c r="BU43" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="BV43" s="16" t="s">
-        <v>315</v>
-      </c>
-      <c r="BW43" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="BX43" s="16" t="s">
-        <v>322</v>
-      </c>
-      <c r="BY43" s="16" t="s">
+      <c r="BX44" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="BY44" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="BZ44" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="CA44" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="CB44" s="14" t="s">
+        <v>320</v>
+      </c>
+      <c r="CC44" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="CD44" s="14" t="s">
         <v>325</v>
       </c>
-      <c r="CB43" s="16" t="s">
-        <v>330</v>
-      </c>
-      <c r="CC43" s="16" t="s">
-        <v>333</v>
-      </c>
-      <c r="CD43" s="16" t="s">
-        <v>335</v>
-      </c>
-      <c r="CE43" s="16" t="s">
-        <v>338</v>
-      </c>
-      <c r="CF43" s="16" t="s">
+      <c r="CE44" s="14" t="s">
+        <v>328</v>
+      </c>
+      <c r="CF44" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="CG44" s="14" t="s">
+        <v>336</v>
+      </c>
+      <c r="CH44" s="14" t="s">
+        <v>339</v>
+      </c>
+      <c r="CI44" s="14" t="s">
         <v>342</v>
-      </c>
-      <c r="CG43" s="16" t="s">
-        <v>346</v>
-      </c>
-      <c r="CH43" s="16" t="s">
-        <v>349</v>
-      </c>
-      <c r="CI43" s="16" t="s">
-        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -4444,21 +6904,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>371</v>
+        <v>388</v>
       </c>
     </row>
   </sheetData>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4472,35 +6932,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>367</v>
+        <v>387</v>
       </c>
     </row>
   </sheetData>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-  </sheetData>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4514,14 +6960,28 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>382</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>358</v>
       </c>
     </row>
   </sheetData>

--- a/sample/ref/doc/TestControl.xlsx
+++ b/sample/ref/doc/TestControl.xlsx
@@ -9,12 +9,12 @@
   </bookViews>
   <sheets>
     <sheet name="state-chart" sheetId="1" r:id="rId1"/>
-    <sheet name="itemsinfo" sheetId="179" r:id="rId48"/>
-    <sheet name="help" sheetId="178" r:id="rId47"/>
-    <sheet name="setting.ini" sheetId="177" r:id="rId46"/>
-    <sheet name="template-statefunc" sheetId="176" r:id="rId45"/>
-    <sheet name="template-source" sheetId="175" r:id="rId44"/>
-    <sheet name="config" sheetId="174" r:id="rId43"/>
+    <sheet name="itemsinfo" sheetId="186" r:id="rId55"/>
+    <sheet name="help" sheetId="185" r:id="rId54"/>
+    <sheet name="setting.ini" sheetId="184" r:id="rId53"/>
+    <sheet name="template-statefunc" sheetId="183" r:id="rId52"/>
+    <sheet name="template-source" sheetId="182" r:id="rId51"/>
+    <sheet name="config" sheetId="181" r:id="rId50"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1326" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="391">
   <si>
     <t>thumbnail</t>
   </si>
@@ -2427,6 +2427,177 @@
 force_display_outpin=0
 last_action=@@@
 Edited a state.
+@@@
+target_pathdir=@@@
+/
+@@@
+state_location_list=@@@
+@@@
+nodegroup_comment_list=@@@
+[{"Key":"\/","Value":"This is the root"},{"Key":"\/PREPARE\/","Value":"ゲーム準備"},{"Key":"\/Intoroduction\/","Value":""},{"Key":"\/Interest\/","Value":""},{"Key":"\/HALLWAY\/","Value":""},{"Key":"\/MUSIC\/","Value":""},{"Key":"\/FULLSCREEN\/","Value":""},{"Key":"\/MENUBTN\/","Value":""},{"Key":"\/EPLOGUE\/","Value":""},{"Key":"\/YAMATO\/","Value":""},{"Key":"\/BTNLINK\/","Value":""}]
+@@@
+nodegroup_pos_list=@@@
+[{"Key":"\/","Value":{"x":100,"y":-1}},{"Key":"\/PREPARE\/","Value":{"x":395,"y":88}},{"Key":"\/Intoroduction\/","Value":{"x":654,"y":27}},{"Key":"\/Interest\/","Value":{"x":1073,"y":17}},{"Key":"\/HALLWAY\/","Value":{"x":1298,"y":23}},{"Key":"\/MUSIC\/","Value":{"x":847,"y":375}},{"Key":"\/FULLSCREEN\/","Value":{"x":424,"y":371}},{"Key":"\/MENUBTN\/","Value":{"x":646,"y":359}},{"Key":"\/EPLOGUE\/","Value":{"x":1261,"y":392}},{"Key":"\/YAMATO\/","Value":{"x":1054,"y":383}},{"Key":"\/BTNLINK\/","Value":{"x":427,"y":528}}]
+@@@
+fillter_state_location_list=@@@
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":42,"y":17}},{"Key":"S_END","Value":{"x":117,"y":132}},{"Key":"S_FIRSTSTEP","Value":{"x":84,"y":236}},{"Key":"S_TITLE","Value":{"x":75,"y":490}},{"Key":"S_QUESTION","Value":{"x":879,"y":25}},{"Key":"____altnative_state____PREPARE","Value":{"x":395,"y":88}},{"Key":"____altnative_state____Intoroduction","Value":{"x":654,"y":27}},{"Key":"____altnative_state____Interest","Value":{"x":1073,"y":17}},{"Key":"____altnative_state____HALLWAY","Value":{"x":1298,"y":23}},{"Key":"____altnative_state____MUSIC","Value":{"x":847,"y":375}},{"Key":"____altnative_state____FULLSCREEN","Value":{"x":424,"y":371}},{"Key":"____altnative_state____MENUBTN","Value":{"x":646,"y":359}},{"Key":"____altnative_state____EPLOGUE","Value":{"x":1261,"y":392}},{"Key":"____altnative_state____YAMATO","Value":{"x":1054,"y":383}},{"Key":"____altnative_state____BTNLINK","Value":{"x":427,"y":528}}]},{"Key":"\/PREPARE\/","Value":[{"Key":"S_TITLE","Value":{"x":50,"y":100}},{"Key":"S_SHOW_MSGWINDOW","Value":{"x":1002,"y":22}},{"Key":"S_SETUP_AKANE","Value":{"x":30,"y":273}},{"Key":"S_SETUP_YAMATO","Value":{"x":442,"y":288}},{"Key":"S_SCENE_1","Value":{"x":219,"y":16}},{"Key":"S_DISP_MENU","Value":{"x":417,"y":16}},{"Key":"S_AKANE_EMOTION","Value":{"x":211,"y":287}},{"Key":"S_SET_CHARNAMEAREA","Value":{"x":1201,"y":23}},{"Key":"S_SETUP_MESSAGEWINDOW","Value":{"x":616,"y":13}},{"Key":"S_ADJUST_CHARAREGION","Value":{"x":810,"y":21}}]},{"Key":"\/Interest\/","Value":[{"Key":"S_QUESTION","Value":{"x":48,"y":29}},{"Key":"S_INTREST","Value":{"x":259,"y":19}},{"Key":"S_INTREST3","Value":{"x":888,"y":20}},{"Key":"S_INTREST7","Value":{"x":480,"y":288}},{"Key":"S_INTREST18","Value":{"x":250,"y":946}},{"Key":"S_INTREST13","Value":{"x":517,"y":558}},{"Key":"S_INTREST8","Value":{"x":711,"y":296}},{"Key":"S_INTREST15","Value":{"x":933,"y":565}},{"Key":"S_INTREST19","Value":{"x":481,"y":973}},{"Key":"S_INTREST4","Value":{"x":1105,"y":23}},{"Key":"S_INTREST10","Value":{"x":1144,"y":295}},{"Key":"S_INTREST17","Value":{"x":15,"y":935}},{"Key":"S_INTREST11","Value":{"x":40,"y":551}},{"Key":"S_INTREST9","Value":{"x":921,"y":297}},{"Key":"S_INTREST1","Value":{"x":474,"y":19}},{"Key":"S_INTREST5","Value":{"x":40,"y":297}},{"Key":"S_HALWAY","Value":{"x":863,"y":1003}},{"Key":"S_INTREST12","Value":{"x":288,"y":553}},{"Key":"S_INTREST2","Value":{"x":680,"y":19}},{"Key":"S_INTREST6","Value":{"x":268,"y":288}},{"Key":"S_INTREST16","Value":{"x":1132,"y":571}},{"Key":"S_INTREST14","Value":{"x":725,"y":609}}]},{"Key":"\/HALLWAY\/","Value":[{"Key":"S_HALWAY1","Value":{"x":459,"y":109}},{"Key":"S_INTREST19","Value":{"x":52,"y":77}},{"Key":"S_HALWAY3","Value":{"x":857,"y":109}},{"Key":"S_HALWAY","Value":{"x":238,"y":103}},{"Key":"S_HALWAY5","Value":{"x":1272,"y":115}},{"Key":"S_HALWAY4","Value":{"x":1062,"y":110}},{"Key":"S_HALWAY2","Value":{"x":660,"y":106}},{"Key":"S_FULLSCREEN","Value":{"x":1261,"y":428}}]},{"Key":"\/MENUBTN\/","Value":[{"Key":"S_MUSIC","Value":{"x":943,"y":173}},{"Key":"S_MENUBTN2","Value":{"x":675,"y":107}},{"Key":"S_MENUBTN1","Value":{"x":483,"y":107}},{"Key":"S_FULLSCREEN7","Value":{"x":54,"y":227}},{"Key":"S_MENUBTN","Value":{"x":276,"y":94}}]},{"Key":"\/YAMATO\/","Value":[{"Key":"S_MUSIC_END","Value":{"x":50,"y":100}},{"Key":"S_SHOW_YAMATO","Value":{"x":42,"y":315}},{"Key":"S_SHOW_YAMATO2","Value":{"x":439,"y":323}},{"Key":"S_SHOW_YAMATO1","Value":{"x":240,"y":317}},{"Key":"S_SHOW_YAMATO3","Value":{"x":642,"y":325}},{"Key":"S_EPILOGUE","Value":{"x":904,"y":325}}]},{"Key":"\/EPLOGUE\/","Value":[{"Key":"S_EPILOGUE3","Value":{"x":677,"y":255}},{"Key":"S_EPILOGUE1","Value":{"x":296,"y":253}},{"Key":"S_EPILOGUE2","Value":{"x":496,"y":255}},{"Key":"S_SHOW_YAMATO3","Value":{"x":47,"y":109}},{"Key":"S_EPILOGUE","Value":{"x":92,"y":249}},{"Key":"S_BTNLINK","Value":{"x":1104,"y":284}}]},{"Key":"\/BTNLINK\/","Value":[{"Key":"S_EPILOGUE3","Value":{"x":50,"y":100}},{"Key":"S_BL_TAG","Value":{"x":359,"y":1199}},{"Key":"S_BL_EXAMP","Value":{"x":554,"y":326}},{"Key":"S_JUMP_TO_BTNLINK","Value":{"x":1031,"y":409}},{"Key":"S_BL_TECH","Value":{"x":781,"y":695}},{"Key":"S_BL_INTRO","Value":{"x":332,"y":114}},{"Key":"S_BTNLINK1","Value":{"x":84,"y":461}},{"Key":"S_BTNLINK","Value":{"x":53,"y":83}},{"Key":"S_BL_INFO","Value":{"x":605,"y":1054}}]},{"Key":"\/MUSIC\/","Value":[{"Key":"S_PLAYMUSIC","Value":{"x":251,"y":282}},{"Key":"S_NOPLAYMUSIC","Value":{"x":264,"y":548}},{"Key":"S_MUSIC","Value":{"x":36,"y":242}},{"Key":"S_MENUBTN2","Value":{"x":39,"y":101}},{"Key":"S_MUSIC_END","Value":{"x":483,"y":292}},{"Key":"S_SHOW_YAMATO","Value":{"x":745,"y":292}}]}]
+@@@
+linecolor_data=@@@
+[{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"BTN_BY.\\("}]
+@@@
+use_external_command=0
+external_command=@@@
+@@@
+source_editor=@@@
+Code %1
+@@@
+source_editor_vs2015_support=1
+label_show=0
+label_text=@@@
+test
+@@@
+option_delete_thisstring=1
+option_delete_br_string=1
+option_delete_bracket_string=1
+option_delete_s_state_string=1
+option_copy_output_to_clipboard=0
+option_convert_with_confirm=0
+option_omit_basestate_string=0
+option_hide_basestate_contents=0
+option_hide_branchcmt_onbranchbox=0
+font_name=@@@
+MS UI Gothic
+@@@
+font_size=11
+comment_font_size=0
+contents_font_size=0
+state_width=140
+state_height=20
+comment_block_height=45
+content_max_height=200
+comment_block_fixed=0
+line_space=-1
+userbutton_title=@@@
+copy
+@@@
+userbutton_command=@@@
+..\copykstotyrano.bat
+@@@
+userbutton_callafterconvert=1
+</t>
+  </si>
+  <si>
+    <t>[nextstate]
+jpn=次に実行するステートを指定する。
+en=Specify the next state to be executed.
+[branch]
+en=This item is defined by "Edit Branch" 
+jpn=分岐処理は、"分岐編集"にて指定
+[update]
+jpn=更新処理を指定する。
+en=Specify a update process.
+[wait]
+en=Set waiting code
+jpn=待ち用のコード指定
+[state]
+jpn=@@@
+ステート名を指定する。
+英文字、数字、アンダーバーで構成される。
+先頭は英文字およびアンダーバー。
+@@@
+en=@@@
+Specify a state name.
+The state name consits of alphabet, number and underbar except that the head characther should be alphabet or a underbar.
+@@@
+[members]
+jpn=メンバ変数及び関数等を指定する。
+en=@@@
+Specify members, variables, classes,  etc.
+@@@
+[clickable]
+en=X,Y,W,H,Label
+jpn=X,Y,W,H,Label
+[post_wait]
+jpn='wait'後の処理を指定する。
+en=Specify the post process after 'wait'.
+[vars]
+jpn=変数宣言を指定する。
+en=Specify variable definitions.
+[prewait]
+en=Specify code for before waiting.
+jpn=待機前のコードを指定
+[embed]
+jpn=@@@
+コード埋め込み用。
+ステート名がE_時に利用可能。
+ステート機能は利用できない。
+@@@
+en=@@@
+For embedding code.
+Enable this section if state name starts with "E_".
+Disabled state features.
+@@@
+[init_iscript]
+en=Specify initial code of inline script.
+jpn=初期化用のインラインコードを指定
+[!uuid]
+jpn=システムがステートのuuid指定に使用。
+en=@@@
+System uses this for the uuid of the state.
+@@@
+[link]
+jpn=LABEL,"TEXT",追加([r])
+en=LABEL,"TEXT",Adding([r])
+[init]
+jpn=初期化用処理を指定する。
+en=Specify a initial process.
+[!dir]
+jpn=システムがステートのディレクトリ指定に使用。
+en=@@@
+System uses this for the directory path of the state.
+@@@
+[glink]
+en=X,Y,W,SIZE,Label,Text
+jpn=X,Y,W,SIZE,Label,Text
+[nowait]
+jpn=@@@
+次のステートへ同期待ちをせず実行する時に 'yes'を指定する。
+同期待ち時には何も指定しない。
+@@@
+en=@@@
+Specify 'yes' if the next state will be execute without a sync wait.
+Do not specify any word wheh the next state will be execute with a sync wait.
+@@@
+[thumbnail]
+jpn=説明用のイメージを指定する。
+en=@@@
+Specify a image for explanation of this state.
+@@@
+[button]
+jpn=X,Y,FILE,LABEL
+en=X,Y,FILE,LABEL
+</t>
+  </si>
+  <si>
+    <t>; The setting was created automatically. 2019/05/19 20:46:06
+; * pssgEditor version : 0.52.682.e87166581b6135c42d0181986a68f00552912530
+psggfile=@@@
+TestControl.psgg
+@@@
+xlsfile=@@@
+TestControl.xlsx
+@@@
+guid=@@@
+09a6d521-3ea1-430a-b507-3b86e13f32ee
+@@@
+bitmap_width=5000
+bitmap_height=2000
+c_statec_cmt=1
+c_thumbnail=1
+c_contents=1
+force_display_outpin=0
+last_action=@@@
+Initilized
 @@@
 target_pathdir=@@@
 /
@@ -6904,21 +7075,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
   </sheetData>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6932,7 +7103,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6946,7 +7117,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6960,21 +7131,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
     </row>
   </sheetData>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetFormatPr defaultRowHeight="15"/>
